--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5361779F-7B5A-654E-B4E8-ADF7E5C9719D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29340" windowHeight="17180" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -3471,13 +3471,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3956,14 +3955,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -4230,7 +4229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -4284,7 +4283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4295,20 +4294,20 @@
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>ethnicity</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>alcohol</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>insulinf</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>glucoser</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>glucose2h</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>homab</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>homair</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>egfr</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>ast</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -4793,12 +4792,12 @@
         <v>alt</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>411</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>414</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>417</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>422</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>424</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>427</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>439</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>440</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>441</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>448</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>449</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>454</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>455</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>456</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>473</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>482</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>479</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>481</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>480</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>486</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>499</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>500</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>501</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>502</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>503</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>504</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>505</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>521</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>522</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>523</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>524</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>525</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>526</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>528</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>529</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>533</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>532</v>
       </c>
@@ -5259,12 +5258,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>744</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>752</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>745</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>746</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>753</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>747</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>754</v>
       </c>
@@ -5362,7 +5361,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>748</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>755</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>749</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>750</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>751</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>721</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>722</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>723</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>724</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>725</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>726</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>727</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>728</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>729</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>730</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>731</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>732</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>733</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>734</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>735</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>736</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>737</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>738</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>739</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>740</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>741</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>742</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>743</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>811</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>812</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>813</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>814</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>815</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>816</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>817</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>818</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>819</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>820</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>821</v>
       </c>
@@ -5908,7 +5907,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>822</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>823</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>824</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>825</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>826</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>827</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>828</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>829</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>830</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>872</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>873</v>
       </c>
@@ -6050,7 +6049,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>874</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>875</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>876</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>877</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>878</v>
       </c>
@@ -6120,7 +6119,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>894</v>
       </c>
@@ -6131,8 +6130,8 @@
         <v>895</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>886</v>
       </c>
       <c r="B146" t="s">
@@ -6142,8 +6141,8 @@
         <v>887</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>891</v>
       </c>
       <c r="B147" t="s">
@@ -6153,16 +6152,16 @@
         <v>892</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>893</v>
       </c>
       <c r="B148" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>920</v>
       </c>
       <c r="B149" t="s">
@@ -6172,8 +6171,8 @@
         <v>919</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
         <v>921</v>
       </c>
       <c r="B150" t="s">
@@ -6183,8 +6182,8 @@
         <v>940</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
         <v>922</v>
       </c>
       <c r="B151" t="s">
@@ -6194,8 +6193,8 @@
         <v>941</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="6" t="s">
+    <row r="152" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
         <v>923</v>
       </c>
       <c r="B152" t="s">
@@ -6205,8 +6204,8 @@
         <v>942</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
         <v>924</v>
       </c>
       <c r="B153" t="s">
@@ -6216,8 +6215,8 @@
         <v>943</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
         <v>925</v>
       </c>
       <c r="B154" t="s">
@@ -6227,8 +6226,8 @@
         <v>944</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
         <v>896</v>
       </c>
       <c r="B155" t="s">
@@ -6238,7 +6237,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>897</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>898</v>
       </c>
@@ -6260,8 +6259,8 @@
         <v>903</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="6" t="s">
+    <row r="158" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
         <v>905</v>
       </c>
       <c r="B158" t="s">
@@ -6271,8 +6270,8 @@
         <v>906</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>908</v>
       </c>
       <c r="B159" t="s">
@@ -6282,8 +6281,8 @@
         <v>907</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>909</v>
       </c>
       <c r="B160" t="s">
@@ -6293,8 +6292,8 @@
         <v>910</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>912</v>
       </c>
       <c r="B161" t="s">
@@ -6304,8 +6303,8 @@
         <v>911</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>946</v>
       </c>
       <c r="B162" t="s">
@@ -6318,8 +6317,8 @@
         <v>945</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>950</v>
       </c>
       <c r="B163" t="s">
@@ -6333,38 +6332,38 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B83:B163">
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C82 C118:C1048576 D53:D54">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118:D137">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D139">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D142">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B163">
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:D163">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6375,21 +6374,21 @@
   <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="98.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>dmagediag</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>ethnicity</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>alcohol</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -6561,7 +6560,7 @@
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>dmfamilyhistory</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>height</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>weight</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>glucoser</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>glucose2h</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6732,7 +6731,7 @@
         <v>homab</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>homair</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>serumcreatinine</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>egfr</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -6879,12 +6878,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>556</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>791</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>794</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>796</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>800</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>801</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>802</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>560</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>562</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>566</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>567</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>568</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>572</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>573</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>574</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>575</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>576</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>577</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>578</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>579</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>580</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>581</v>
       </c>
@@ -7144,7 +7143,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>582</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>583</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>614</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>615</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>619</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>620</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>454</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>455</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>634</v>
       </c>
@@ -7261,7 +7260,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>976</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>977</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>649</v>
       </c>
@@ -7324,12 +7323,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>744</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>752</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>745</v>
       </c>
@@ -7371,7 +7370,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>746</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>753</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>747</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>754</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>748</v>
       </c>
@@ -7441,7 +7440,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>755</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>749</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>750</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>751</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>721</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>722</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>723</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>724</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>725</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>726</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>727</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>728</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>729</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>730</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>731</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>732</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>733</v>
       </c>
@@ -7667,7 +7666,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>734</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>735</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>736</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>737</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>738</v>
       </c>
@@ -7731,7 +7730,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>739</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>740</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>741</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>742</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>743</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>951</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>954</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>955</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>956</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>961</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>962</v>
       </c>
@@ -7879,7 +7878,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>963</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>964</v>
       </c>
@@ -7917,23 +7916,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541D2D4A-1C12-4007-8B3C-4F63FCF697FB}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -7980,7 +7979,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8018,17 +8017,17 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -8039,15 +8038,15 @@
       <c r="C4" t="s">
         <v>338</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8055,15 +8054,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8071,15 +8070,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -8090,15 +8089,15 @@
       <c r="G7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -8106,15 +8105,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8122,15 +8121,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -8141,15 +8140,15 @@
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -8160,15 +8159,15 @@
       <c r="C11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -8176,15 +8175,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8195,15 +8194,15 @@
       <c r="C13" t="s">
         <v>340</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8214,15 +8213,15 @@
       <c r="C14" t="s">
         <v>341</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -8230,15 +8229,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -8252,15 +8251,15 @@
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -8274,15 +8273,15 @@
       <c r="H17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -8293,15 +8292,15 @@
       <c r="C18" t="s">
         <v>342</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -8312,15 +8311,15 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -8328,15 +8327,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A20,Harmonized!A:A,0))</f>
         <v>insulinf</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -8344,15 +8343,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -8363,15 +8362,15 @@
       <c r="L22" t="s">
         <v>321</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>glucoser</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>glucose2h</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v>homab</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>homair</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -8482,7 +8481,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -8494,7 +8493,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>ast</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -8551,12 +8550,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>327</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>330</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>346</v>
       </c>
@@ -8635,7 +8634,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>349</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>352</v>
       </c>
@@ -8657,7 +8656,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>358</v>
       </c>
@@ -8679,7 +8678,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -8713,13 +8712,13 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8745,7 +8744,7 @@
         <v>study_id</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>dmduration</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>dmagediag</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>age</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>female</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>race</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>ethnicity</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -8808,7 +8807,7 @@
         <v>alcohol</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>smoking</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>dmfamilyhistory</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8835,7 +8834,7 @@
         <v>height</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>weight</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>bmi</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>sbp</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>dbp</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>wc</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>hba1c</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -8898,7 +8897,7 @@
         <v>insulinf</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>cpeptidef</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>glucosef</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>glucoser</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>glucose2h</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>homab</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>homair</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>totalc</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>ldlc</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>hdlc</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -8988,7 +8987,7 @@
         <v>vldlc</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>tgl</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>serumcreatinine</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>urinealbumin</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>urinecreatinine</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>uacr</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -9042,7 +9041,7 @@
         <v>egfr</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>ast</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9074,7 +9073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9091,15 +9090,15 @@
       <selection activeCell="M14" sqref="M14:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="14" spans="13:13" x14ac:dyDescent="0.35">
-      <c r="M14" s="5" t="s">
+    <row r="14" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="13:13" x14ac:dyDescent="0.35">
-      <c r="M15" s="5" t="s">
+    <row r="15" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9113,20 +9112,20 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -9152,7 +9151,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -9160,20 +9159,20 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9199,18 +9198,18 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -9218,18 +9217,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -9238,18 +9237,18 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9257,18 +9256,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -9276,18 +9275,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -9295,18 +9294,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -9314,18 +9313,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -9333,18 +9332,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -9352,18 +9351,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -9371,18 +9370,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -9390,18 +9389,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -9409,18 +9408,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -9428,18 +9427,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -9447,18 +9446,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -9466,18 +9465,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -9485,18 +9484,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -9507,18 +9506,18 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -9529,18 +9528,18 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9548,18 +9547,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -9570,18 +9569,18 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -9589,18 +9588,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A23,Harmonized!A:A,0))</f>
         <v>glucoser</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -9611,18 +9610,18 @@
       <c r="E24" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9630,18 +9629,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A25,Harmonized!A:A,0))</f>
         <v>homab</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -9649,18 +9648,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A26,Harmonized!A:A,0))</f>
         <v>homair</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -9672,7 +9671,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>urinealbumin</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -9741,7 +9740,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -9762,12 +9761,12 @@
         <v>egfr</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -9826,7 +9825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -9881,7 +9880,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>192</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>203</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -10048,7 +10047,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -10092,7 +10091,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -10125,7 +10124,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>239</v>
       </c>
@@ -10147,7 +10146,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>240</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>241</v>
       </c>
@@ -10169,7 +10168,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>243</v>
       </c>
@@ -10191,7 +10190,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -10202,7 +10201,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -10235,7 +10234,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>286</v>
       </c>
@@ -10268,7 +10267,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>287</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>288</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -10301,7 +10300,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>305</v>
       </c>
@@ -10312,7 +10311,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>304</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>306</v>
       </c>
@@ -10354,14 +10353,14 @@
       <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10395,21 +10394,21 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10435,19 +10434,19 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -10455,19 +10454,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -10476,19 +10475,19 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -10496,19 +10495,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -10516,19 +10515,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -10536,19 +10535,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -10556,19 +10555,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -10576,19 +10575,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -10596,19 +10595,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -10616,19 +10615,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -10636,19 +10635,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -10656,19 +10655,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -10676,19 +10675,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -10696,19 +10695,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -10716,19 +10715,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -10736,19 +10735,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -10759,19 +10758,19 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -10782,32 +10781,32 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -10818,32 +10817,32 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>homab</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>homair</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -10945,7 +10944,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -10969,12 +10968,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -11066,7 +11065,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -11077,7 +11076,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -11099,7 +11098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -11110,7 +11109,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -11121,7 +11120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>192</v>
       </c>
@@ -11163,7 +11162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -11191,7 +11190,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -11219,7 +11218,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>203</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -11244,7 +11243,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -11288,7 +11287,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -11310,7 +11309,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -11321,7 +11320,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -11343,7 +11342,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>239</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>240</v>
       </c>
@@ -11365,7 +11364,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>241</v>
       </c>
@@ -11376,7 +11375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>243</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -11409,7 +11408,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -11420,7 +11419,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -11431,7 +11430,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -11442,7 +11441,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>286</v>
       </c>
@@ -11475,7 +11474,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>287</v>
       </c>
@@ -11486,7 +11485,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>288</v>
       </c>
@@ -11497,7 +11496,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -11521,20 +11520,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55874760-86AA-41EB-A2D6-050D3575AF4D}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:B38"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -11596,7 +11595,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>dmduration</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -11623,7 +11622,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -11668,7 +11667,7 @@
         <v>race</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -11676,20 +11675,20 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -11700,18 +11699,18 @@
       <c r="D10" t="s">
         <v>372</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -11722,18 +11721,18 @@
       <c r="D11" t="s">
         <v>371</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -11741,18 +11740,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -11769,18 +11768,18 @@
       <c r="H13" t="s">
         <v>369</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -11797,18 +11796,18 @@
       <c r="H14" t="s">
         <v>303</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -11825,18 +11824,18 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -11853,18 +11852,18 @@
       <c r="H16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -11881,18 +11880,18 @@
       <c r="H17" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -11909,18 +11908,18 @@
       <c r="H18" t="s">
         <v>370</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -11937,18 +11936,18 @@
       <c r="H19" t="s">
         <v>383</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -11962,18 +11961,18 @@
       <c r="H20" t="s">
         <v>384</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>cpeptidef</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>glucoser</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -12018,7 +12017,7 @@
         <v>glucose2h</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -12066,7 +12065,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -12084,7 +12083,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -12111,7 +12110,7 @@
         <v>vldlc</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -12141,7 +12140,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -12159,7 +12158,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -12177,7 +12176,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v>uacr</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -12207,7 +12206,7 @@
         <v>ast</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -12216,12 +12215,12 @@
         <v>alt</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>373</v>
       </c>
@@ -12238,7 +12237,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>374</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>385</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>401</v>
       </c>
@@ -12326,15 +12325,15 @@
       <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -12351,7 +12350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -12377,19 +12376,19 @@
       <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -12400,17 +12399,17 @@
       <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -12418,17 +12417,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -12439,17 +12438,17 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -12460,17 +12459,17 @@
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -12481,17 +12480,17 @@
       <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -12502,17 +12501,17 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -12523,17 +12522,17 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -12544,17 +12543,17 @@
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -12565,17 +12564,17 @@
       <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -12584,17 +12583,17 @@
         <v>height</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -12603,17 +12602,17 @@
         <v>weight</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -12624,17 +12623,17 @@
       <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -12644,7 +12643,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -12654,7 +12653,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -12664,7 +12663,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -12697,7 +12696,7 @@
         <v>homab</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -12706,7 +12705,7 @@
         <v>homair</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -12766,7 +12765,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -12778,7 +12777,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -12802,7 +12801,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -12814,12 +12813,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -12847,7 +12846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -12869,7 +12868,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -12891,7 +12890,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -12913,7 +12912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -12957,7 +12956,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -12990,7 +12989,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -13001,7 +13000,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -13012,7 +13011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -13023,7 +13022,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -13056,7 +13055,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>130</v>
       </c>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5361779F-7B5A-654E-B4E8-ADF7E5C9719D}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFACD291-CF87-4A4F-AC32-E92B33A41309}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29340" windowHeight="17180" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29340" windowHeight="17180" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="985">
   <si>
     <t>harmonized</t>
   </si>
@@ -3384,6 +3384,9 @@
   </si>
   <si>
     <t>whtsup</t>
+  </si>
+  <si>
+    <t>chma</t>
   </si>
 </sst>
 </file>
@@ -3686,6 +3689,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4294,10 +4301,10 @@
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8703,13 +8710,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="170" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8718,15 +8725,18 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8735,7 +8745,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8744,7 +8754,7 @@
         <v>study_id</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -8753,7 +8763,7 @@
         <v>dmduration</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8762,7 +8772,7 @@
         <v>dmagediag</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8771,7 +8781,7 @@
         <v>age</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -8780,7 +8790,7 @@
         <v>female</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -8789,7 +8799,7 @@
         <v>race</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8798,7 +8808,7 @@
         <v>ethnicity</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -8807,7 +8817,7 @@
         <v>alcohol</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -8816,7 +8826,7 @@
         <v>smoking</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -8825,7 +8835,7 @@
         <v>dmfamilyhistory</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -8834,7 +8844,7 @@
         <v>height</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8843,7 +8853,7 @@
         <v>weight</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -8852,7 +8862,7 @@
         <v>bmi</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -9111,8 +9121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824997C4-ECFA-43DC-9501-1C6C5C097BCA}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
@@ -10346,7 +10356,7 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
@@ -11520,11 +11530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55874760-86AA-41EB-A2D6-050D3575AF4D}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12322,7 +12332,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFACD291-CF87-4A4F-AC32-E92B33A41309}"/>
+  <xr:revisionPtr revIDLastSave="889" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B447FB5-E9FC-9541-9916-3E1D364061FB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29340" windowHeight="17180" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1474">
   <si>
     <t>harmonized</t>
   </si>
@@ -3386,14 +3386,1481 @@
     <t>whtsup</t>
   </si>
   <si>
+    <t>v1_v5_analytes</t>
+  </si>
+  <si>
+    <t>ID_C</t>
+  </si>
+  <si>
+    <t>Visit 1 Age in years</t>
+  </si>
+  <si>
+    <t>Visit 2 Age in years</t>
+  </si>
+  <si>
+    <t>Visit 3 Age in years</t>
+  </si>
+  <si>
+    <t>Visit 4 Age in years</t>
+  </si>
+  <si>
+    <t>Visit 5 Age in years</t>
+  </si>
+  <si>
+    <t>AGE_V1</t>
+  </si>
+  <si>
+    <t>AGE_V2</t>
+  </si>
+  <si>
+    <t>AGE_V3</t>
+  </si>
+  <si>
+    <t>AGE_V4</t>
+  </si>
+  <si>
+    <t>AGE_V5</t>
+  </si>
+  <si>
+    <t>age1</t>
+  </si>
+  <si>
+    <t>age2</t>
+  </si>
+  <si>
+    <t>age3</t>
+  </si>
+  <si>
+    <t>age4</t>
+  </si>
+  <si>
+    <t>age5</t>
+  </si>
+  <si>
+    <t>GLUC_V1</t>
+  </si>
+  <si>
+    <t>GLUC_V2</t>
+  </si>
+  <si>
+    <t>GLUC_V3</t>
+  </si>
+  <si>
+    <t>GLUC_V4</t>
+  </si>
+  <si>
+    <t>GLUC_V5</t>
+  </si>
+  <si>
+    <t>V1 Total Glucose mg/dL (glucos01)</t>
+  </si>
+  <si>
+    <t>V2 Total Glucose mg/dL (chmb07)</t>
+  </si>
+  <si>
+    <t>V3 Total Glucose mg/dL (lipc4a)</t>
+  </si>
+  <si>
+    <t>V4 Total Glucose mg/dL (lipd4a)</t>
+  </si>
+  <si>
+    <t>V5 Total Glucose mg/dL Reference (lip23)</t>
+  </si>
+  <si>
+    <t>ANTA01</t>
+  </si>
+  <si>
+    <t>anta</t>
+  </si>
+  <si>
+    <t>ANTACY</t>
+  </si>
+  <si>
+    <t>CONTACT YEAR</t>
+  </si>
+  <si>
+    <t>year_contact</t>
+  </si>
+  <si>
+    <t>ANTA04</t>
+  </si>
+  <si>
+    <t>V1AGE01</t>
+  </si>
+  <si>
+    <t>RACEGRP</t>
+  </si>
+  <si>
+    <t>derive13</t>
+  </si>
+  <si>
+    <t>BMI01</t>
+  </si>
+  <si>
+    <t>DIABETES w/ fasting glucose cutpt.&lt;126</t>
+  </si>
+  <si>
+    <t>DIABTS02</t>
+  </si>
+  <si>
+    <t>DIABTS03</t>
+  </si>
+  <si>
+    <t>ENROLL_YR</t>
+  </si>
+  <si>
+    <t>Year of enrollment</t>
+  </si>
+  <si>
+    <t>New Maternal History of diabetes</t>
+  </si>
+  <si>
+    <t>New Paternal History of diabetes</t>
+  </si>
+  <si>
+    <t>MOMHISTORYDIA</t>
+  </si>
+  <si>
+    <t>DADHISTORYDIA</t>
+  </si>
+  <si>
+    <t>EDUCATION LEVEL, DEFINITION 1</t>
+  </si>
+  <si>
+    <t>EDUCATION LEVEL, DEFINITION 2</t>
+  </si>
+  <si>
+    <t>ELEVEL01</t>
+  </si>
+  <si>
+    <t>ELEVEL02</t>
+  </si>
+  <si>
+    <t>HISTORY OF MYOCARDIAL INFARCTION</t>
+  </si>
+  <si>
+    <t>HXOFMI02</t>
+  </si>
+  <si>
+    <t>Prevalent HF at Visit 1</t>
+  </si>
+  <si>
+    <t>PREVHF01</t>
+  </si>
+  <si>
+    <t>prevlnt MI (composite ECG OR MED HIST)</t>
+  </si>
+  <si>
+    <t>PREVALENT CORONARY HEART DISEASE</t>
+  </si>
+  <si>
+    <t>PREVMI05</t>
+  </si>
+  <si>
+    <t>PRVCHD05</t>
+  </si>
+  <si>
+    <t>ANTA07A</t>
+  </si>
+  <si>
+    <t>WSTHPR01</t>
+  </si>
+  <si>
+    <t>WAIST-TO-HIP RATIO</t>
+  </si>
+  <si>
+    <t>APOLIPOPROTEIN AI in mg/L</t>
+  </si>
+  <si>
+    <t>APOLIPOPROTEIN B in mg/L</t>
+  </si>
+  <si>
+    <t>APASIU01</t>
+  </si>
+  <si>
+    <t>APBSIU01</t>
+  </si>
+  <si>
+    <t>INSULIN in pmol/L</t>
+  </si>
+  <si>
+    <t>INSSIU01</t>
+  </si>
+  <si>
+    <t>FAST0802</t>
+  </si>
+  <si>
+    <t>FAST1202</t>
+  </si>
+  <si>
+    <t>FASTING TIME OF  8 HOURS OR MORE</t>
+  </si>
+  <si>
+    <t>FASTING TIME OF 12 HOURS OR MORE</t>
+  </si>
+  <si>
+    <t>HDL01</t>
+  </si>
+  <si>
+    <t>LDL02</t>
+  </si>
+  <si>
+    <t>hom</t>
+  </si>
+  <si>
+    <t>HIGH BP EVER DIAGNOSED?           Q10A</t>
+  </si>
+  <si>
+    <t>HIGH BLOOD CHOL EVER DIAGNOSED?   Q10B</t>
+  </si>
+  <si>
+    <t>HEART ATTACK EVER DIAGNOSED?      Q10C</t>
+  </si>
+  <si>
+    <t>STROKE EVER DIAGNOSED?            Q10D</t>
+  </si>
+  <si>
+    <t>DIABETES EVER DIAGNOSED?          Q10E</t>
+  </si>
+  <si>
+    <t>CANCER EVER DIAGNOSED?            Q10F</t>
+  </si>
+  <si>
+    <t>CHRONIC LUNG DIS EVER DIAGNOSED?  Q10G</t>
+  </si>
+  <si>
+    <t>HOM10A</t>
+  </si>
+  <si>
+    <t>HOM10B</t>
+  </si>
+  <si>
+    <t>HOM10C</t>
+  </si>
+  <si>
+    <t>HOM10D</t>
+  </si>
+  <si>
+    <t>HOM10E</t>
+  </si>
+  <si>
+    <t>HOM10F</t>
+  </si>
+  <si>
+    <t>HOM10G</t>
+  </si>
+  <si>
+    <t>lipa</t>
+  </si>
+  <si>
+    <t>LIPACY</t>
+  </si>
+  <si>
+    <t>HEMACY</t>
+  </si>
+  <si>
+    <t>hmta</t>
+  </si>
+  <si>
+    <t>HMTA02</t>
+  </si>
+  <si>
+    <t>HMTACY</t>
+  </si>
+  <si>
+    <t>LIPA01</t>
+  </si>
+  <si>
+    <t>LIPA02</t>
+  </si>
+  <si>
+    <t>V1 Calibrated Serum Creatinine mg/dL</t>
+  </si>
+  <si>
+    <t>V2 Calibrated Serum Creatinine mg/dL</t>
+  </si>
+  <si>
+    <t>V4 Calibrated Serum Creatinine mg/dL</t>
+  </si>
+  <si>
+    <t>V5 Serum Creatinine mg/dL Reference(chm21)</t>
+  </si>
+  <si>
+    <t>SCR_V1</t>
+  </si>
+  <si>
+    <t>SCR_V2</t>
+  </si>
+  <si>
+    <t>SCR_V4</t>
+  </si>
+  <si>
+    <t>SCR_V5</t>
+  </si>
+  <si>
+    <t>V1 Calibrated Uric Acid mg/dL</t>
+  </si>
+  <si>
+    <t>V2 Calibrated Uric Acid mg/dL</t>
+  </si>
+  <si>
+    <t>V4 Calibrated Uric Acid mg/dL</t>
+  </si>
+  <si>
+    <t>V5 Uric Acid mg/dL Reference (chm27)</t>
+  </si>
+  <si>
+    <t>URIC_V1</t>
+  </si>
+  <si>
+    <t>URIC_V2</t>
+  </si>
+  <si>
+    <t>URIC_V4</t>
+  </si>
+  <si>
+    <t>URIC_V5</t>
+  </si>
+  <si>
+    <t>V1 Total Cholesterol mg/dL (lip01)</t>
+  </si>
+  <si>
+    <t>V2 Total Cholesterol mg/dL (lipb01a)</t>
+  </si>
+  <si>
+    <t>V3 Total Cholesterol mg/dL (lipc1a)</t>
+  </si>
+  <si>
+    <t>V4 Total Cholesterol mg/dL (lipd1a)</t>
+  </si>
+  <si>
+    <t>V5 Total Cholesterol mg/dL Reference (lip3)</t>
+  </si>
+  <si>
+    <t>TOTCHOL_V1</t>
+  </si>
+  <si>
+    <t>TOTCHOL_V2</t>
+  </si>
+  <si>
+    <t>TOTCHOL_V3</t>
+  </si>
+  <si>
+    <t>TOTCHOL_V4</t>
+  </si>
+  <si>
+    <t>TOTCHOL_V5</t>
+  </si>
+  <si>
+    <t>V4 C-Reactive Protein mg/L (hscrp)</t>
+  </si>
+  <si>
+    <t>V5 C-Reactive Protein mg/L Reference (lip33)</t>
+  </si>
+  <si>
+    <t>CRP_V4</t>
+  </si>
+  <si>
+    <t>CRP_V5</t>
+  </si>
+  <si>
+    <t>V1 HDL mg/dL (hdl01 in derived data set)</t>
+  </si>
+  <si>
+    <t>V2 HDL mg/dL (lipb03a)</t>
+  </si>
+  <si>
+    <t>V3 HDL mg/dL (lipc3a)</t>
+  </si>
+  <si>
+    <t>V4 HDL mg/dL (lipd3a)</t>
+  </si>
+  <si>
+    <t>V5 HDL mg/dL Reference *ASSAY METHOD CHANGE* (lip13)</t>
+  </si>
+  <si>
+    <t>V1 Trigylcerides mg/dL (lipa02)</t>
+  </si>
+  <si>
+    <t>V2 Trigylcerides mg/dL (lipb02)</t>
+  </si>
+  <si>
+    <t>V3 Trigylcerides mg/dL (lipc2a)</t>
+  </si>
+  <si>
+    <t>V4 Trigylcerides mg/dL (lipd2a)</t>
+  </si>
+  <si>
+    <t>V5 Trigylcerides mg/dL Reference (lip8)</t>
+  </si>
+  <si>
+    <t>V1 LDL mg/dL (ldl02 in derived data set)</t>
+  </si>
+  <si>
+    <t>V2 LDL mg/dL (ldl22 in derived data set)</t>
+  </si>
+  <si>
+    <t>V3 LDL mg/dL (ldl32 in derived data set)</t>
+  </si>
+  <si>
+    <t>V4 LDL mg/dL (ldl41 in derived data set)</t>
+  </si>
+  <si>
+    <t>V5 LDL mg/dL Reference (ldl51 in derived data set)</t>
+  </si>
+  <si>
+    <t>HDL_V1</t>
+  </si>
+  <si>
+    <t>HDL_V2</t>
+  </si>
+  <si>
+    <t>HDL_V3</t>
+  </si>
+  <si>
+    <t>HDL_V4</t>
+  </si>
+  <si>
+    <t>HDL_V5</t>
+  </si>
+  <si>
+    <t>TGS_V1</t>
+  </si>
+  <si>
+    <t>TGS_V2</t>
+  </si>
+  <si>
+    <t>TGS_V3</t>
+  </si>
+  <si>
+    <t>TGS_V4</t>
+  </si>
+  <si>
+    <t>TGS_V5</t>
+  </si>
+  <si>
+    <t>LDL_V1</t>
+  </si>
+  <si>
+    <t>LDL_V2</t>
+  </si>
+  <si>
+    <t>LDL_V3</t>
+  </si>
+  <si>
+    <t>LDL_V4</t>
+  </si>
+  <si>
+    <t>LDL_V5</t>
+  </si>
+  <si>
+    <t>V1 eGFR-Creatinine (mL/min/1.73 m2)(calibrated serum creatinine)</t>
+  </si>
+  <si>
+    <t>V2 eGFR-Creatinine (mL/min/1.73 m2)(calibrated serum creatinine)</t>
+  </si>
+  <si>
+    <t>V4 eGFR-Creatinine (mL/min/1.73 m2)(calibrated serum creatinine)</t>
+  </si>
+  <si>
+    <t>V5 eGFR-Creatinine (mL/min/1.73 m2)(reference serum creatinine)</t>
+  </si>
+  <si>
+    <t>V2 eGFR-Cystatin-C (mL/min/1.73 m2)(uncalibrated cystatin c)</t>
+  </si>
+  <si>
+    <t>V4 eGFR-Cystatin- C (mL/min/1.73 m2)(calibrated cystatin c)</t>
+  </si>
+  <si>
+    <t>V5 eGFR-Cystatin-C (mL/min/1.73 m2)(reference cystatin c)</t>
+  </si>
+  <si>
+    <t>V2 eGFR-Creatinine and Cystatin-C (mL/min/1.73 m2)(calibrated serum creatinine and uncalibrated cystatin c)</t>
+  </si>
+  <si>
+    <t>V4 eGFR-Creatinine and Cystatin-C (mL/min/1.73 m2)(calibrated serum creatinine and calibrated cystatin c)</t>
+  </si>
+  <si>
+    <t>V5 V5 eGFR- Creatinine and Cystatin-C (mL/min/1.73 m2)(reference serum creatinine and reference cystatin c)</t>
+  </si>
+  <si>
+    <t>V4 Calibrated ALT U/L</t>
+  </si>
+  <si>
+    <t>V4 Calibrated AST U/L</t>
+  </si>
+  <si>
+    <t>EGFRSCR_V1</t>
+  </si>
+  <si>
+    <t>EGFRSCR_V2</t>
+  </si>
+  <si>
+    <t>EGFRSCR_V4</t>
+  </si>
+  <si>
+    <t>EGFRSCR_V5</t>
+  </si>
+  <si>
+    <t>EGFRCYSC_V2</t>
+  </si>
+  <si>
+    <t>EGFRCYSC_V4</t>
+  </si>
+  <si>
+    <t>EGFRCYSC_V5</t>
+  </si>
+  <si>
+    <t>EGFRSCRCYSC_V2</t>
+  </si>
+  <si>
+    <t>EGFRSCRCYSC_V4</t>
+  </si>
+  <si>
+    <t>EGFRSCRCYSC_V5</t>
+  </si>
+  <si>
+    <t>ALT_V4</t>
+  </si>
+  <si>
+    <t>AST_V4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>AMHA1A</t>
+  </si>
+  <si>
+    <t>AMHA1</t>
+  </si>
+  <si>
+    <t>MOTHER HAD DIABETES               Q24</t>
+  </si>
+  <si>
+    <t>AMHA24</t>
+  </si>
+  <si>
+    <t>FATHER HAVE DIABETES              Q26</t>
+  </si>
+  <si>
+    <t>AMHA26</t>
+  </si>
+  <si>
+    <t>NUMBER SISTERS HAD DIABETES       Q28A</t>
+  </si>
+  <si>
+    <t>AMHA28A</t>
+  </si>
+  <si>
+    <t>NUMBER BROTHERS HAD DIABETES      Q29A</t>
+  </si>
+  <si>
+    <t>AMHA29A</t>
+  </si>
+  <si>
+    <t>derive37</t>
+  </si>
+  <si>
+    <t>BMI32</t>
+  </si>
+  <si>
+    <t>WSTHPR31</t>
+  </si>
+  <si>
+    <t>Diabetes Using Lower Cutpoint 140 mg/dL</t>
+  </si>
+  <si>
+    <t>Diabetes Using Lower Cutpoint 126 mg/dL</t>
+  </si>
+  <si>
+    <t>DIABTS33</t>
+  </si>
+  <si>
+    <t>DIABTS34</t>
+  </si>
+  <si>
+    <t>hemc31</t>
+  </si>
+  <si>
+    <t>Diabetic Change Status</t>
+  </si>
+  <si>
+    <t>DIAB</t>
+  </si>
+  <si>
+    <t>msrc04</t>
+  </si>
+  <si>
+    <t>DIABETES MED PAST 2 WEEKS?        Q24G</t>
+  </si>
+  <si>
+    <t>MSRC24G</t>
+  </si>
+  <si>
+    <t>sbpa02</t>
+  </si>
+  <si>
+    <t>1ST SYSTOLIC BP MEASUREMENT       Q12</t>
+  </si>
+  <si>
+    <t>1ST DIASTOLIC BP MEASUREMENT      Q13</t>
+  </si>
+  <si>
+    <t>SBPA12</t>
+  </si>
+  <si>
+    <t>SBPA13</t>
+  </si>
+  <si>
+    <t>2ND SYSTOLIC BP MEASUREMENT       Q15</t>
+  </si>
+  <si>
+    <t>2ND DIASTOLIC BP MEASUREMENT      Q16</t>
+  </si>
+  <si>
+    <t>SBPA15</t>
+  </si>
+  <si>
+    <t>SBPA16</t>
+  </si>
+  <si>
+    <t>SBPA18</t>
+  </si>
+  <si>
+    <t>SBPA19</t>
+  </si>
+  <si>
+    <t>3RD SYSTOLIC BP MEASUREMENT       Q18</t>
+  </si>
+  <si>
+    <t>3RD DIASTOLIC BP MEASUREMENT      Q19</t>
+  </si>
+  <si>
+    <t>DERIVED GLUCOSE VALUE in mg/dl</t>
+  </si>
+  <si>
+    <t>GLUCOS01</t>
+  </si>
+  <si>
     <t>chma</t>
+  </si>
+  <si>
+    <t>CHMA09</t>
+  </si>
+  <si>
+    <t>CHMA13</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hhxb </t>
+  </si>
+  <si>
+    <t>HAVE YOU EVER SMOKED CIGARETTES?    Q44</t>
+  </si>
+  <si>
+    <t>DO YOU NOW SMOKE CIGARETTES?        Q45</t>
+  </si>
+  <si>
+    <t>HHXB44</t>
+  </si>
+  <si>
+    <t>HHXB45</t>
+  </si>
+  <si>
+    <t>DO YOU DRINK ALCOHOL?               Q58</t>
+  </si>
+  <si>
+    <t>HAVE YOU EVER CONSUMED ALCOHOL?     Q59</t>
+  </si>
+  <si>
+    <t>HHXB58</t>
+  </si>
+  <si>
+    <t>HHXB59</t>
+  </si>
+  <si>
+    <t>HOM28</t>
+  </si>
+  <si>
+    <t>HOM30</t>
+  </si>
+  <si>
+    <t>CURDRK02</t>
+  </si>
+  <si>
+    <t>EVRDRK01</t>
+  </si>
+  <si>
+    <t>DIABTS22</t>
+  </si>
+  <si>
+    <t>DIABETES-DIAGNOSED BY DOCTOR         Q5D</t>
+  </si>
+  <si>
+    <t>HHXB05D</t>
+  </si>
+  <si>
+    <t>DIABTS23</t>
+  </si>
+  <si>
+    <t>BMI21</t>
+  </si>
+  <si>
+    <t>WSTHPR21</t>
+  </si>
+  <si>
+    <t>antb</t>
+  </si>
+  <si>
+    <t>ANTB04A</t>
+  </si>
+  <si>
+    <t>ANTBCY</t>
+  </si>
+  <si>
+    <t>ANTB01</t>
+  </si>
+  <si>
+    <t>sbpb02</t>
+  </si>
+  <si>
+    <t>SBPB12</t>
+  </si>
+  <si>
+    <t>SBPB13</t>
+  </si>
+  <si>
+    <t>SBPB15</t>
+  </si>
+  <si>
+    <t>SBPB16</t>
+  </si>
+  <si>
+    <t>SBPB18</t>
+  </si>
+  <si>
+    <t>SBPB19</t>
+  </si>
+  <si>
+    <t>hmtb</t>
+  </si>
+  <si>
+    <t>HMTB02</t>
+  </si>
+  <si>
+    <t>FAST0823</t>
+  </si>
+  <si>
+    <t>FAST1223</t>
+  </si>
+  <si>
+    <t>chmb</t>
+  </si>
+  <si>
+    <t>CHMB07</t>
+  </si>
+  <si>
+    <t>CHMB08</t>
+  </si>
+  <si>
+    <t>phxa04</t>
+  </si>
+  <si>
+    <t>PHXA40</t>
+  </si>
+  <si>
+    <t>PHXA41</t>
+  </si>
+  <si>
+    <t>CURSMK31</t>
+  </si>
+  <si>
+    <t>EVRSMK31</t>
+  </si>
+  <si>
+    <t>AMHACY</t>
+  </si>
+  <si>
+    <t>MSRCCY</t>
+  </si>
+  <si>
+    <t>PHXACY</t>
+  </si>
+  <si>
+    <t>amha02</t>
+  </si>
+  <si>
+    <t>PHXA8K</t>
+  </si>
+  <si>
+    <t>antc04</t>
+  </si>
+  <si>
+    <t>ANTC1</t>
+  </si>
+  <si>
+    <t>ANTC2</t>
+  </si>
+  <si>
+    <t>ANTC3A</t>
+  </si>
+  <si>
+    <t>sbpc04_02</t>
+  </si>
+  <si>
+    <t>SBPC13</t>
+  </si>
+  <si>
+    <t>SBPC14</t>
+  </si>
+  <si>
+    <t>SBPC16</t>
+  </si>
+  <si>
+    <t>SBPC17</t>
+  </si>
+  <si>
+    <t>SBPC19</t>
+  </si>
+  <si>
+    <t>SBPC20</t>
+  </si>
+  <si>
+    <t>SBPCCY</t>
+  </si>
+  <si>
+    <t>hmtcv301</t>
+  </si>
+  <si>
+    <t>HMTC4</t>
+  </si>
+  <si>
+    <t>FAST0834</t>
+  </si>
+  <si>
+    <t>FAST1234</t>
+  </si>
+  <si>
+    <t>derive2_10</t>
+  </si>
+  <si>
+    <t>APASIU21</t>
+  </si>
+  <si>
+    <t>APBSIU21</t>
+  </si>
+  <si>
+    <t>HXOFMI31</t>
+  </si>
+  <si>
+    <t>HXOFMI21</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>URIC ACID (MG-DL)                   Q15</t>
+  </si>
+  <si>
+    <t>CHMA15</t>
+  </si>
+  <si>
+    <t>V2AGE22</t>
+  </si>
+  <si>
+    <t>HDL221</t>
+  </si>
+  <si>
+    <t>LDL22</t>
+  </si>
+  <si>
+    <t>lipb</t>
+  </si>
+  <si>
+    <t>LIPB01A</t>
+  </si>
+  <si>
+    <t>LIPB02A</t>
+  </si>
+  <si>
+    <t>CHMB10</t>
+  </si>
+  <si>
+    <t>V3AGE31</t>
+  </si>
+  <si>
+    <t>lipc04</t>
+  </si>
+  <si>
+    <t>LIPC4A</t>
+  </si>
+  <si>
+    <t>LIPC1A</t>
+  </si>
+  <si>
+    <t>LIPC2A</t>
+  </si>
+  <si>
+    <t>LIPC3A</t>
+  </si>
+  <si>
+    <t>LIPC5</t>
+  </si>
+  <si>
+    <t>derive47</t>
+  </si>
+  <si>
+    <t>V4AGE41</t>
+  </si>
+  <si>
+    <t>phxb04</t>
+  </si>
+  <si>
+    <t>PHXB14</t>
+  </si>
+  <si>
+    <t>PHXB15</t>
+  </si>
+  <si>
+    <t>PHXB8</t>
+  </si>
+  <si>
+    <t>PHXB7</t>
+  </si>
+  <si>
+    <t>HXOFMI41</t>
+  </si>
+  <si>
+    <t>antd05</t>
+  </si>
+  <si>
+    <t>ANTD2</t>
+  </si>
+  <si>
+    <t>ANTD3A</t>
+  </si>
+  <si>
+    <t>BMI41</t>
+  </si>
+  <si>
+    <t>WSTHPR41</t>
+  </si>
+  <si>
+    <t>SBPD13</t>
+  </si>
+  <si>
+    <t>SBPD14</t>
+  </si>
+  <si>
+    <t>SBPD16</t>
+  </si>
+  <si>
+    <t>SBPD17</t>
+  </si>
+  <si>
+    <t>hmtcv401</t>
+  </si>
+  <si>
+    <t>lipd04</t>
+  </si>
+  <si>
+    <t>INSULIN (VALUE)                   Q7A</t>
+  </si>
+  <si>
+    <t>LIPD7A</t>
+  </si>
+  <si>
+    <t>LIPD4A</t>
+  </si>
+  <si>
+    <t>LIPD5A</t>
+  </si>
+  <si>
+    <t>LIPD1A</t>
+  </si>
+  <si>
+    <t>LIPD3A</t>
+  </si>
+  <si>
+    <t>LIPD2A</t>
+  </si>
+  <si>
+    <t>LIPD8</t>
+  </si>
+  <si>
+    <t>LIPD6A</t>
+  </si>
+  <si>
+    <t>FAST0841</t>
+  </si>
+  <si>
+    <t>FAST1241</t>
+  </si>
+  <si>
+    <t>DIABTS42</t>
+  </si>
+  <si>
+    <t>DIABTS41</t>
+  </si>
+  <si>
+    <t>PHXB6C</t>
+  </si>
+  <si>
+    <t>gtsa04</t>
+  </si>
+  <si>
+    <t>MSRD24G</t>
+  </si>
+  <si>
+    <t>msrd04</t>
+  </si>
+  <si>
+    <t>PARTICIPANT TREATED FOR DIABETES? Q1</t>
+  </si>
+  <si>
+    <t>TAKES MEDICATIONS FOR DIABETES?   Q2</t>
+  </si>
+  <si>
+    <t>GTSA1</t>
+  </si>
+  <si>
+    <t>GTSA2</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>DIABTS53</t>
+  </si>
+  <si>
+    <t>DIABTS54</t>
+  </si>
+  <si>
+    <t>DIABTS56</t>
+  </si>
+  <si>
+    <t>V5AGE52</t>
+  </si>
+  <si>
+    <t>WSTHPR51</t>
+  </si>
+  <si>
+    <t>status51</t>
+  </si>
+  <si>
+    <t>Self-Report Incident Diabetes Mellitus by SEP2013</t>
+  </si>
+  <si>
+    <t>INCSELFREPDM51</t>
+  </si>
+  <si>
+    <t>Self-Reported Incident Diabetes Mellitus Date or Last Follow-up Date - days from visit 1</t>
+  </si>
+  <si>
+    <t>INCSELFREPDM_DATE51_DAYS</t>
+  </si>
+  <si>
+    <t>DIABTS57</t>
+  </si>
+  <si>
+    <t>DIABMDCODE51</t>
+  </si>
+  <si>
+    <t>rex</t>
+  </si>
+  <si>
+    <t>REX3</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>ANT3</t>
+  </si>
+  <si>
+    <t>ANT4</t>
+  </si>
+  <si>
+    <t>BMI51</t>
+  </si>
+  <si>
+    <t>SBP5</t>
+  </si>
+  <si>
+    <t>SBP6</t>
+  </si>
+  <si>
+    <t>SBP8</t>
+  </si>
+  <si>
+    <t>SBP9</t>
+  </si>
+  <si>
+    <t>SBP11</t>
+  </si>
+  <si>
+    <t>SBP12</t>
+  </si>
+  <si>
+    <t>ANT10A</t>
+  </si>
+  <si>
+    <t>cbc</t>
+  </si>
+  <si>
+    <t>CBC5</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>Insulin (µU/mL)</t>
+  </si>
+  <si>
+    <t>LIP48</t>
+  </si>
+  <si>
+    <t>LIP23</t>
+  </si>
+  <si>
+    <t>LIP3</t>
+  </si>
+  <si>
+    <t>LIP18</t>
+  </si>
+  <si>
+    <t>LIP13</t>
+  </si>
+  <si>
+    <t>LIP8</t>
+  </si>
+  <si>
+    <t>chm</t>
+  </si>
+  <si>
+    <t>CHM21</t>
+  </si>
+  <si>
+    <t>CHM45</t>
+  </si>
+  <si>
+    <t>CHM39</t>
+  </si>
+  <si>
+    <t>FAST0851</t>
+  </si>
+  <si>
+    <t>FAST1251</t>
+  </si>
+  <si>
+    <t>CHM27</t>
+  </si>
+  <si>
+    <t>HXOFMI52</t>
+  </si>
+  <si>
+    <t>CURDRK51</t>
+  </si>
+  <si>
+    <t>EVRDRK51</t>
+  </si>
+  <si>
+    <t>EVRSMK52</t>
+  </si>
+  <si>
+    <t>CURSMK52</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V6AGE62</t>
+  </si>
+  <si>
+    <t>EVRDRK61</t>
+  </si>
+  <si>
+    <t>CURDRK61</t>
+  </si>
+  <si>
+    <t>CURSMK62</t>
+  </si>
+  <si>
+    <t>EVRSMK62</t>
+  </si>
+  <si>
+    <t>DIABTS63</t>
+  </si>
+  <si>
+    <t>DIABTS64</t>
+  </si>
+  <si>
+    <t>DIABTS66</t>
+  </si>
+  <si>
+    <t>DIABTS67</t>
+  </si>
+  <si>
+    <t>DIABMDCODE61</t>
+  </si>
+  <si>
+    <t>Diabetes - Hemoglobin A1C, cutpoint 6.5%</t>
+  </si>
+  <si>
+    <t>Diabetes (DM medications or DM reported on AFU)</t>
+  </si>
+  <si>
+    <t>Self-Report Diabetes Mellitus by JAN2018</t>
+  </si>
+  <si>
+    <t>INCSELFREPDM61</t>
+  </si>
+  <si>
+    <t>Diabetic Medications in past 4 weeks - Using 2004 Med Code</t>
+  </si>
+  <si>
+    <t>BMI61</t>
+  </si>
+  <si>
+    <t>WSTHPR61</t>
+  </si>
+  <si>
+    <t>chem2</t>
+  </si>
+  <si>
+    <t>CHEM19</t>
+  </si>
+  <si>
+    <t>V6 Fasting Glucose in SI Units, Fasting at least 8 hours (BIO7a=Yes)</t>
+  </si>
+  <si>
+    <t>GLUSIU62</t>
+  </si>
+  <si>
+    <t>CHEM5</t>
+  </si>
+  <si>
+    <t>lipf</t>
+  </si>
+  <si>
+    <t>LIPF1B</t>
+  </si>
+  <si>
+    <t>LIPF4B</t>
+  </si>
+  <si>
+    <t>LIPF2B</t>
+  </si>
+  <si>
+    <t>LIPF3B</t>
+  </si>
+  <si>
+    <t>CHEM6</t>
+  </si>
+  <si>
+    <t>CHEM4</t>
+  </si>
+  <si>
+    <t>EGFR61</t>
+  </si>
+  <si>
+    <t>CHEM3</t>
+  </si>
+  <si>
+    <t>HXOFMI62</t>
+  </si>
+  <si>
+    <t>FAST0861</t>
+  </si>
+  <si>
+    <t>FAST1261</t>
+  </si>
+  <si>
+    <t>diab_ind</t>
+  </si>
+  <si>
+    <t>diab_doc</t>
+  </si>
+  <si>
+    <t>diab_evr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diab_126_fast </t>
+  </si>
+  <si>
+    <t>diab_140</t>
+  </si>
+  <si>
+    <t>diab_126</t>
+  </si>
+  <si>
+    <t>diab_a1c65</t>
+  </si>
+  <si>
+    <t>diab_med_afu</t>
+  </si>
+  <si>
+    <t>diab_med_4w</t>
+  </si>
+  <si>
+    <t>diab_sr_0913</t>
+  </si>
+  <si>
+    <t>diab_sr_0118</t>
+  </si>
+  <si>
+    <t>diab_sr_since_v1</t>
+  </si>
+  <si>
+    <t>diab_change</t>
+  </si>
+  <si>
+    <t>diab_trt</t>
+  </si>
+  <si>
+    <t>diab_med_any</t>
+  </si>
+  <si>
+    <t>diab_med_2w</t>
+  </si>
+  <si>
+    <t>diab_hist_m</t>
+  </si>
+  <si>
+    <t>diab_his_p</t>
+  </si>
+  <si>
+    <t>diab_m</t>
+  </si>
+  <si>
+    <t>diab_p</t>
+  </si>
+  <si>
+    <t>diab_sis_n</t>
+  </si>
+  <si>
+    <t>diab_brt_n</t>
+  </si>
+  <si>
+    <t>smk_evr</t>
+  </si>
+  <si>
+    <t>smk_cur</t>
+  </si>
+  <si>
+    <t>drk_cur</t>
+  </si>
+  <si>
+    <t>drk_evr</t>
+  </si>
+  <si>
+    <t>edu1</t>
+  </si>
+  <si>
+    <t>edu2</t>
+  </si>
+  <si>
+    <t>mi_prev</t>
+  </si>
+  <si>
+    <t>chd_prev</t>
+  </si>
+  <si>
+    <t>mf_his</t>
+  </si>
+  <si>
+    <t>wfr</t>
+  </si>
+  <si>
+    <t>hf_prev_v1</t>
+  </si>
+  <si>
+    <t>year_enrolled</t>
+  </si>
+  <si>
+    <t>apo_a</t>
+  </si>
+  <si>
+    <t>apo_b</t>
+  </si>
+  <si>
+    <t>uric_acid</t>
+  </si>
+  <si>
+    <t>insulin_no_unit</t>
+  </si>
+  <si>
+    <t>insulin_uuml</t>
+  </si>
+  <si>
+    <t>insulin_pmoll</t>
+  </si>
+  <si>
+    <t>fast_8</t>
+  </si>
+  <si>
+    <t>fast_12</t>
+  </si>
+  <si>
+    <t>glucose_value</t>
+  </si>
+  <si>
+    <t>glucosef_si</t>
+  </si>
+  <si>
+    <t>highbp_evr</t>
+  </si>
+  <si>
+    <t>highchl_evr</t>
+  </si>
+  <si>
+    <t>ha_evr</t>
+  </si>
+  <si>
+    <t>strk_evr</t>
+  </si>
+  <si>
+    <t>cncer_evr</t>
+  </si>
+  <si>
+    <t>lung_dis_ever</t>
+  </si>
+  <si>
+    <t>sbpd04_02</t>
+  </si>
+  <si>
+    <t>HHXBCY</t>
+  </si>
+  <si>
+    <t>ant_v6</t>
+  </si>
+  <si>
+    <t>sbp_v6</t>
+  </si>
+  <si>
+    <t>status61</t>
+  </si>
+  <si>
+    <t>derive61</t>
+  </si>
+  <si>
+    <t>derive51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3447,8 +4914,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3458,6 +4977,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3474,13 +5005,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4301,7 +5846,7 @@
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
@@ -7924,7 +9469,7 @@
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:B38"/>
@@ -8024,15 +9569,15 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -8045,13 +9590,13 @@
       <c r="C4" t="s">
         <v>338</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -8061,13 +9606,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -8077,13 +9622,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -8096,13 +9641,13 @@
       <c r="G7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -8112,13 +9657,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8128,13 +9673,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8147,13 +9692,13 @@
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8166,13 +9711,13 @@
       <c r="C11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8182,13 +9727,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8201,13 +9746,13 @@
       <c r="C13" t="s">
         <v>340</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -8220,13 +9765,13 @@
       <c r="C14" t="s">
         <v>341</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -8236,13 +9781,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -8258,13 +9803,13 @@
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -8280,13 +9825,13 @@
       <c r="H17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -8299,13 +9844,13 @@
       <c r="C18" t="s">
         <v>342</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -8318,13 +9863,13 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -8334,13 +9879,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A20,Harmonized!A:A,0))</f>
         <v>insulinf</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -8350,13 +9895,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -8369,13 +9914,13 @@
       <c r="L22" t="s">
         <v>321</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -8708,35 +10253,205 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0CCACF-8000-4770-9AE0-16E6DB39EE93}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:BE157"/>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="AV58" sqref="AV58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="3" style="8" customWidth="1"/>
+    <col min="38" max="38" width="2.5" style="8" customWidth="1"/>
+    <col min="39" max="39" width="11.5" customWidth="1"/>
+    <col min="40" max="40" width="12.83203125" customWidth="1"/>
+    <col min="47" max="47" width="2.83203125" style="8" customWidth="1"/>
+    <col min="48" max="48" width="10.83203125" customWidth="1"/>
+    <col min="57" max="57" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>1165</v>
+      </c>
       <c r="D1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BE1" s="12" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8745,7 +10460,7 @@
         <v>id</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8753,8 +10468,146 @@
         <f>INDEX(Harmonized!B:B,MATCH(A3,Harmonized!A:A,0))</f>
         <v>study_id</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="H3" t="s">
+        <v>985</v>
+      </c>
+      <c r="I3" t="s">
+        <v>985</v>
+      </c>
+      <c r="J3" t="s">
+        <v>985</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M3" t="s">
+        <v>985</v>
+      </c>
+      <c r="N3" t="s">
+        <v>985</v>
+      </c>
+      <c r="O3" t="s">
+        <v>985</v>
+      </c>
+      <c r="P3" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>985</v>
+      </c>
+      <c r="R3" t="s">
+        <v>985</v>
+      </c>
+      <c r="T3" t="s">
+        <v>985</v>
+      </c>
+      <c r="U3" t="s">
+        <v>985</v>
+      </c>
+      <c r="V3" t="s">
+        <v>985</v>
+      </c>
+      <c r="W3" t="s">
+        <v>985</v>
+      </c>
+      <c r="X3" t="s">
+        <v>985</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>985</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>985</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>985</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>985</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -8763,7 +10616,7 @@
         <v>dmduration</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8771,8 +10624,11 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="T5" s="6" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8780,8 +10636,60 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -8789,8 +10697,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -8798,8 +10711,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -8808,7 +10726,7 @@
         <v>ethnicity</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -8816,8 +10734,11 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -8825,8 +10746,11 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -8835,35 +10759,88 @@
         <v>dmfamilyhistory</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D13" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N13" s="13"/>
+      <c r="Z13" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AF13" s="13"/>
+      <c r="AP13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="D14" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E15" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="V15" s="6"/>
+      <c r="AD15" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="str">
@@ -8871,8 +10848,8 @@
         <v>sbp</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B17" t="str">
@@ -8880,35 +10857,80 @@
         <v>dbp</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B18" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D18" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A19,Harmonized!A:A,0))</f>
         <v>hba1c</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="J19" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AR19" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A20,Harmonized!A:A,0))</f>
         <v>insulinf</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="R20" s="13"/>
+      <c r="AB20" s="13"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="str">
@@ -8916,17 +10938,23 @@
         <v>cpeptidef</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A22,Harmonized!A:A,0))</f>
         <v>glucosef</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="AI22" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="str">
@@ -8934,16 +10962,19 @@
         <v>glucoser</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A24,Harmonized!A:A,0))</f>
         <v>glucose2h</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="AI24" s="6" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -8952,7 +10983,7 @@
         <v>homab</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -8961,35 +10992,92 @@
         <v>homair</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B27" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A27,Harmonized!A:A,0))</f>
         <v>totalc</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="I27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>1366</v>
+      </c>
+      <c r="BA27" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A28,Harmonized!A:A,0))</f>
         <v>ldlc</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1282</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>1367</v>
+      </c>
+      <c r="BA28" s="6" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A29,Harmonized!A:A,0))</f>
         <v>hdlc</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1281</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BA29" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B30" t="str">
@@ -8997,16 +11085,37 @@
         <v>vldlc</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B31" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A31,Harmonized!A:A,0))</f>
         <v>tgl</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="I31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1285</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>1369</v>
+      </c>
+      <c r="BA31" s="6" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -9014,8 +11123,23 @@
         <f>INDEX(Harmonized!B:B,MATCH(A32,Harmonized!A:A,0))</f>
         <v>serumcreatinine</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F32" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AI32" s="17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -9023,8 +11147,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A33,Harmonized!A:A,0))</f>
         <v>urinealbumin</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q33" s="13"/>
+      <c r="AT33" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -9032,8 +11166,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A34,Harmonized!A:A,0))</f>
         <v>urinecreatinine</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="AI34" s="17"/>
+      <c r="AT34" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -9042,17 +11185,20 @@
         <v>uacr</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A36,Harmonized!A:A,0))</f>
         <v>egfr</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="AV36" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B37" t="str">
@@ -9060,13 +11206,2197 @@
         <v>ast</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B38" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A38,Harmonized!A:A,0))</f>
         <v>alt</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="L45" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="M46" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AE46" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="L48" t="s">
+        <v>1225</v>
+      </c>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="6"/>
+      <c r="BB48" s="6"/>
+      <c r="BC48" s="6"/>
+      <c r="BD48" s="6"/>
+    </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="U49" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AN49" s="6"/>
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="6"/>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="9"/>
+      <c r="AV49" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="6"/>
+      <c r="BA49" s="6"/>
+      <c r="BB49" s="6"/>
+      <c r="BC49" s="6"/>
+      <c r="BD49" s="6"/>
+    </row>
+    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="U50" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AN50" s="6"/>
+      <c r="AO50" s="6"/>
+      <c r="AP50" s="6"/>
+      <c r="AQ50" s="6"/>
+      <c r="AR50" s="6"/>
+      <c r="AS50" s="6"/>
+      <c r="AT50" s="6"/>
+      <c r="AU50" s="9"/>
+      <c r="AV50" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AW50" s="6"/>
+      <c r="AX50" s="6"/>
+      <c r="AY50" s="6"/>
+      <c r="AZ50" s="6"/>
+      <c r="BA50" s="6"/>
+      <c r="BB50" s="6"/>
+      <c r="BC50" s="6"/>
+      <c r="BD50" s="6"/>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="6"/>
+      <c r="AP51" s="6"/>
+      <c r="AQ51" s="6"/>
+      <c r="AR51" s="6"/>
+      <c r="AS51" s="6"/>
+      <c r="AT51" s="6"/>
+      <c r="AU51" s="9"/>
+      <c r="AV51" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="6"/>
+      <c r="AY51" s="6"/>
+      <c r="AZ51" s="6"/>
+      <c r="BA51" s="6"/>
+      <c r="BB51" s="6"/>
+      <c r="BC51" s="6"/>
+      <c r="BD51" s="6"/>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="6"/>
+      <c r="AT52" s="6"/>
+      <c r="AU52" s="9"/>
+      <c r="AV52" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
+      <c r="AY52" s="6"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="6"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="6"/>
+      <c r="BD52" s="6"/>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="9"/>
+      <c r="AV53" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="6"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="6"/>
+      <c r="AT54" s="6"/>
+      <c r="AU54" s="9"/>
+      <c r="AV54" s="6"/>
+      <c r="AW54" s="6"/>
+      <c r="AX54" s="6"/>
+      <c r="AY54" s="6"/>
+      <c r="AZ54" s="6"/>
+      <c r="BA54" s="6"/>
+      <c r="BB54" s="6"/>
+      <c r="BC54" s="6"/>
+      <c r="BD54" s="6"/>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="9"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="6"/>
+      <c r="AS55" s="6"/>
+      <c r="AT55" s="6"/>
+      <c r="AU55" s="9"/>
+      <c r="AW55" s="6" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AX55" s="6"/>
+      <c r="AY55" s="6"/>
+      <c r="AZ55" s="6"/>
+      <c r="BA55" s="6"/>
+      <c r="BB55" s="6"/>
+      <c r="BC55" s="6"/>
+      <c r="BD55" s="6"/>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="6"/>
+      <c r="AQ56" s="6"/>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="6"/>
+      <c r="AT56" s="6"/>
+      <c r="AU56" s="9"/>
+      <c r="AV56" s="6"/>
+      <c r="AW56" s="6"/>
+      <c r="AX56" s="6"/>
+      <c r="AY56" s="6"/>
+      <c r="AZ56" s="6"/>
+      <c r="BA56" s="6"/>
+      <c r="BB56" s="6"/>
+      <c r="BC56" s="6"/>
+      <c r="BD56" s="6"/>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1429</v>
+      </c>
+      <c r="W57" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W58" s="6"/>
+      <c r="AJ58" s="6" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1431</v>
+      </c>
+      <c r="W59" s="6"/>
+      <c r="AJ59" s="6" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AL60" s="9"/>
+      <c r="AM60" s="6"/>
+      <c r="AN60" s="6"/>
+      <c r="AO60" s="6"/>
+      <c r="AP60" s="6"/>
+      <c r="AQ60" s="6"/>
+      <c r="AR60" s="6"/>
+      <c r="AS60" s="6"/>
+      <c r="AT60" s="6"/>
+      <c r="AU60" s="9"/>
+      <c r="AV60" s="6"/>
+      <c r="AW60" s="6"/>
+      <c r="AX60" s="6"/>
+      <c r="AY60" s="6"/>
+      <c r="AZ60" s="6"/>
+      <c r="BA60" s="6"/>
+      <c r="BB60" s="6"/>
+      <c r="BC60" s="6"/>
+      <c r="BD60" s="6"/>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="T63" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="6"/>
+      <c r="AQ63" s="6"/>
+      <c r="AR63" s="6"/>
+      <c r="AS63" s="6"/>
+      <c r="AT63" s="6"/>
+      <c r="AU63" s="9"/>
+      <c r="AV63" s="6"/>
+      <c r="AW63" s="6"/>
+      <c r="AX63" s="6"/>
+      <c r="AY63" s="6"/>
+      <c r="AZ63" s="6"/>
+      <c r="BA63" s="6"/>
+      <c r="BB63" s="6"/>
+      <c r="BC63" s="6"/>
+      <c r="BD63" s="6"/>
+    </row>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="T64" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="6"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="9"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="6"/>
+      <c r="BD64" s="6"/>
+    </row>
+    <row r="65" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="T65" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="6"/>
+      <c r="AQ65" s="6"/>
+      <c r="AR65" s="6"/>
+      <c r="AS65" s="6"/>
+      <c r="AT65" s="6"/>
+      <c r="AU65" s="9"/>
+      <c r="AV65" s="6"/>
+      <c r="AW65" s="6"/>
+      <c r="AX65" s="6"/>
+      <c r="AY65" s="6"/>
+      <c r="AZ65" s="6"/>
+      <c r="BA65" s="6"/>
+      <c r="BB65" s="6"/>
+      <c r="BC65" s="6"/>
+      <c r="BD65" s="6"/>
+    </row>
+    <row r="66" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="9"/>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="6"/>
+      <c r="AQ66" s="6"/>
+      <c r="AR66" s="6"/>
+      <c r="AS66" s="6"/>
+      <c r="AT66" s="6"/>
+      <c r="AU66" s="9"/>
+      <c r="AV66" s="6"/>
+      <c r="AW66" s="6"/>
+      <c r="AX66" s="6"/>
+      <c r="AY66" s="6"/>
+      <c r="AZ66" s="6"/>
+      <c r="BA66" s="6"/>
+      <c r="BB66" s="6"/>
+      <c r="BC66" s="6"/>
+      <c r="BD66" s="6"/>
+    </row>
+    <row r="67" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="9"/>
+      <c r="AM67" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AN67" s="6"/>
+      <c r="AO67" s="6"/>
+      <c r="AP67" s="6"/>
+      <c r="AQ67" s="6"/>
+      <c r="AR67" s="6"/>
+      <c r="AS67" s="6"/>
+      <c r="AT67" s="6"/>
+      <c r="AU67" s="9"/>
+      <c r="AV67" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AW67" s="6"/>
+      <c r="AX67" s="6"/>
+      <c r="AY67" s="6"/>
+      <c r="AZ67" s="6"/>
+      <c r="BA67" s="6"/>
+      <c r="BB67" s="6"/>
+      <c r="BC67" s="6"/>
+      <c r="BD67" s="6"/>
+    </row>
+    <row r="68" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="6"/>
+      <c r="AL68" s="9"/>
+      <c r="AM68" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AN68" s="6"/>
+      <c r="AO68" s="6"/>
+      <c r="AP68" s="6"/>
+      <c r="AQ68" s="6"/>
+      <c r="AR68" s="6"/>
+      <c r="AS68" s="6"/>
+      <c r="AT68" s="6"/>
+      <c r="AU68" s="9"/>
+      <c r="AV68" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AW68" s="6"/>
+      <c r="AX68" s="6"/>
+      <c r="AY68" s="6"/>
+      <c r="AZ68" s="6"/>
+      <c r="BA68" s="6"/>
+      <c r="BB68" s="6"/>
+      <c r="BC68" s="6"/>
+      <c r="BD68" s="6"/>
+    </row>
+    <row r="69" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="M69" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="9"/>
+      <c r="AM69" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AN69" s="6"/>
+      <c r="AO69" s="6"/>
+      <c r="AP69" s="6"/>
+      <c r="AQ69" s="6"/>
+      <c r="AR69" s="6"/>
+      <c r="AS69" s="6"/>
+      <c r="AT69" s="6"/>
+      <c r="AU69" s="9"/>
+      <c r="AV69" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AW69" s="6"/>
+      <c r="AX69" s="6"/>
+      <c r="AY69" s="6"/>
+      <c r="AZ69" s="6"/>
+      <c r="BA69" s="6"/>
+      <c r="BB69" s="6"/>
+      <c r="BC69" s="6"/>
+      <c r="BD69" s="6"/>
+    </row>
+    <row r="70" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="M70" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="9"/>
+      <c r="AM70" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AN70" s="6"/>
+      <c r="AO70" s="6"/>
+      <c r="AP70" s="6"/>
+      <c r="AQ70" s="6"/>
+      <c r="AR70" s="6"/>
+      <c r="AS70" s="6"/>
+      <c r="AT70" s="6"/>
+      <c r="AU70" s="9"/>
+      <c r="AV70" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AW70" s="6"/>
+      <c r="AX70" s="6"/>
+      <c r="AY70" s="6"/>
+      <c r="AZ70" s="6"/>
+      <c r="BA70" s="6"/>
+      <c r="BB70" s="6"/>
+      <c r="BC70" s="6"/>
+      <c r="BD70" s="6"/>
+    </row>
+    <row r="71" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="L75" t="s">
+        <v>1276</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="L76" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="U76" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V76" s="6"/>
+      <c r="AD76" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AM76" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="L79" s="6" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="L80" s="6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="Q81" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AT81" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="AI82" s="16" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="AI83" s="16"/>
+      <c r="AS83" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="L85" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="U85" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AD85" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AM85" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="L86" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AD86" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AM86" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="Q87" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AZ87" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="AV88" s="6" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I95" s="14"/>
+      <c r="O95" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="AA95" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AG95" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AQ95" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AY95" s="6" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I96" s="14"/>
+      <c r="O96" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="AA96" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AG96" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AQ96" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AY96" s="6" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I97" s="14"/>
+      <c r="O97" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="AA97" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AG97" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AQ97" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AY97" s="6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I98" s="14"/>
+      <c r="O98" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="AA98" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AG98" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AQ98" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AY98" s="6" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>646</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I99" s="14"/>
+      <c r="O99" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="AA99" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AG99" s="13"/>
+      <c r="AQ99" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AY99" s="6" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>647</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I100" s="14"/>
+      <c r="O100" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="AA100" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AG100" s="13"/>
+      <c r="AQ100" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AY100" s="6" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="T105" t="s">
+        <v>1251</v>
+      </c>
+      <c r="X105" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AA105" s="6" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B106" t="s">
+        <v>996</v>
+      </c>
+      <c r="BE106" s="6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="B107" t="s">
+        <v>997</v>
+      </c>
+      <c r="BE107" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="B108" t="s">
+        <v>998</v>
+      </c>
+      <c r="BE108" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="B109" t="s">
+        <v>999</v>
+      </c>
+      <c r="BE109" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BE110" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="BE111" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="BE112" s="6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="BE113" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="BE114" s="6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="BE115" s="6" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BE116" s="6" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="BE117" s="6" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="BE118" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="BE119" s="6" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BE120" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BE121" s="6" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BE122" s="6" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BE123" s="6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="BE124" s="6" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BE125" s="6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BE126" s="6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BE127" s="6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BE128" s="6" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BE129" s="6" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BE130" s="6" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="BE131" s="6" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="BE132" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BE133" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BE134" s="6" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BE135" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BE136" s="6" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="BE137" s="6" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BE138" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BE139" s="6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BE140" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="BE141" s="6" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="BE142" s="6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="BE143" s="6" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="BE144" s="6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="BE145" s="6" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BE146" s="6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="BE147" s="6" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BE148" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BE149" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BE150" s="6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BE151" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BE152" s="6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BE153" s="6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BE154" s="6" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BE155" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BE156" s="6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BE157" s="6" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -9121,11 +13451,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824997C4-ECFA-43DC-9501-1C6C5C097BCA}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9169,18 +13499,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -9208,16 +13538,16 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -9227,16 +13557,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -9247,16 +13577,16 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9266,16 +13596,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9285,16 +13615,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -9304,16 +13634,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -9323,16 +13653,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -9342,16 +13672,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9361,16 +13691,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9380,16 +13710,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9399,16 +13729,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -9418,16 +13748,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9437,16 +13767,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9456,16 +13786,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -9475,16 +13805,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -9494,16 +13824,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -9516,16 +13846,16 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -9538,16 +13868,16 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -9557,16 +13887,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -9579,16 +13909,16 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -9598,16 +13928,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A23,Harmonized!A:A,0))</f>
         <v>glucoser</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -9620,16 +13950,16 @@
       <c r="E24" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -9639,16 +13969,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A25,Harmonized!A:A,0))</f>
         <v>homab</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -9658,16 +13988,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A26,Harmonized!A:A,0))</f>
         <v>homair</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -10356,7 +14686,7 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
@@ -10404,19 +14734,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -10444,17 +14774,17 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10464,17 +14794,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -10485,17 +14815,17 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -10505,17 +14835,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10525,17 +14855,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -10545,17 +14875,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -10565,17 +14895,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -10585,17 +14915,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -10605,17 +14935,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -10625,17 +14955,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -10645,17 +14975,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -10665,17 +14995,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -10685,17 +15015,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -10705,17 +15035,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -10725,17 +15055,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -10745,17 +15075,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -10768,17 +15098,17 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -10791,30 +15121,30 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -10827,30 +15157,30 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -11531,7 +15861,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
@@ -11685,18 +16015,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -11709,16 +16039,16 @@
       <c r="D10" t="s">
         <v>372</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -11731,16 +16061,16 @@
       <c r="D11" t="s">
         <v>371</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -11750,16 +16080,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -11778,16 +16108,16 @@
       <c r="H13" t="s">
         <v>369</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -11806,16 +16136,16 @@
       <c r="H14" t="s">
         <v>303</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -11834,16 +16164,16 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -11862,16 +16192,16 @@
       <c r="H16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -11890,16 +16220,16 @@
       <c r="H17" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -11918,16 +16248,16 @@
       <c r="H18" t="s">
         <v>370</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -11946,16 +16276,16 @@
       <c r="H19" t="s">
         <v>383</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -11971,16 +16301,16 @@
       <c r="H20" t="s">
         <v>384</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -12329,7 +16659,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
@@ -12386,17 +16716,17 @@
       <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -12409,15 +16739,15 @@
       <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -12427,15 +16757,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -12448,15 +16778,15 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -12469,15 +16799,15 @@
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -12490,15 +16820,15 @@
       <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -12511,15 +16841,15 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -12532,15 +16862,15 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -12553,15 +16883,15 @@
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -12574,15 +16904,15 @@
       <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -12593,15 +16923,15 @@
         <v>height</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -12612,15 +16942,15 @@
         <v>weight</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -12633,15 +16963,15 @@
       <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="889" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B447FB5-E9FC-9541-9916-3E1D364061FB}"/>
+  <xr:revisionPtr revIDLastSave="891" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55A2EA9-1F1A-E745-87F6-ACAF7C80B15D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="22920" windowHeight="17740" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -10258,16 +10258,16 @@
   <dimension ref="A1:BE157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV58" sqref="AV58"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="2.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="6" width="9.83203125" customWidth="1"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="891" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55A2EA9-1F1A-E745-87F6-ACAF7C80B15D}"/>
+  <xr:revisionPtr revIDLastSave="982" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9395539D-E3EB-3C47-A506-96971F20B8FE}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="22920" windowHeight="17740" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1496">
   <si>
     <t>harmonized</t>
   </si>
@@ -3473,15 +3473,6 @@
     <t>anta</t>
   </si>
   <si>
-    <t>ANTACY</t>
-  </si>
-  <si>
-    <t>CONTACT YEAR</t>
-  </si>
-  <si>
-    <t>year_contact</t>
-  </si>
-  <si>
     <t>ANTA04</t>
   </si>
   <si>
@@ -3653,21 +3644,9 @@
     <t>lipa</t>
   </si>
   <si>
-    <t>LIPACY</t>
-  </si>
-  <si>
-    <t>HEMACY</t>
-  </si>
-  <si>
     <t>hmta</t>
   </si>
   <si>
-    <t>HMTA02</t>
-  </si>
-  <si>
-    <t>HMTACY</t>
-  </si>
-  <si>
     <t>LIPA01</t>
   </si>
   <si>
@@ -3935,9 +3914,6 @@
     <t>AMHA1A</t>
   </si>
   <si>
-    <t>AMHA1</t>
-  </si>
-  <si>
     <t>MOTHER HAD DIABETES               Q24</t>
   </si>
   <si>
@@ -4124,9 +4100,6 @@
     <t>ANTB04A</t>
   </si>
   <si>
-    <t>ANTBCY</t>
-  </si>
-  <si>
     <t>ANTB01</t>
   </si>
   <si>
@@ -4154,9 +4127,6 @@
     <t>hmtb</t>
   </si>
   <si>
-    <t>HMTB02</t>
-  </si>
-  <si>
     <t>FAST0823</t>
   </si>
   <si>
@@ -4187,15 +4157,6 @@
     <t>EVRSMK31</t>
   </si>
   <si>
-    <t>AMHACY</t>
-  </si>
-  <si>
-    <t>MSRCCY</t>
-  </si>
-  <si>
-    <t>PHXACY</t>
-  </si>
-  <si>
     <t>amha02</t>
   </si>
   <si>
@@ -4235,15 +4196,9 @@
     <t>SBPC20</t>
   </si>
   <si>
-    <t>SBPCCY</t>
-  </si>
-  <si>
     <t>hmtcv301</t>
   </si>
   <si>
-    <t>HMTC4</t>
-  </si>
-  <si>
     <t>FAST0834</t>
   </si>
   <si>
@@ -4517,9 +4472,6 @@
     <t>cbc</t>
   </si>
   <si>
-    <t>CBC5</t>
-  </si>
-  <si>
     <t>lip</t>
   </si>
   <si>
@@ -4637,9 +4589,6 @@
     <t>chem2</t>
   </si>
   <si>
-    <t>CHEM19</t>
-  </si>
-  <si>
     <t>V6 Fasting Glucose in SI Units, Fasting at least 8 hours (BIO7a=Yes)</t>
   </si>
   <si>
@@ -4838,9 +4787,6 @@
     <t>sbpd04_02</t>
   </si>
   <si>
-    <t>HHXBCY</t>
-  </si>
-  <si>
     <t>ant_v6</t>
   </si>
   <si>
@@ -4854,6 +4800,126 @@
   </si>
   <si>
     <t>derive51</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE61</t>
+  </si>
+  <si>
+    <t>HYPTMDCODE61</t>
+  </si>
+  <si>
+    <t>HYPTMD61</t>
+  </si>
+  <si>
+    <t>med_chol_4w</t>
+  </si>
+  <si>
+    <t>med_bp_4w</t>
+  </si>
+  <si>
+    <t>sr_bp_4w</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE51</t>
+  </si>
+  <si>
+    <t>HYPTMD51</t>
+  </si>
+  <si>
+    <t>HYPTMDCODE51</t>
+  </si>
+  <si>
+    <t>Cholesterol Lowering Medication in past 4 weeks - Using Medi-Span GPI Code</t>
+  </si>
+  <si>
+    <t>Hypertension Lowering Medication in past 4 weeks - Using Medi-Span GPI Code</t>
+  </si>
+  <si>
+    <t>Hypertension Medications in past 4 weeks: Self-reported</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE52</t>
+  </si>
+  <si>
+    <t>Medications Which Secondarily Affect Cholesterol in past 4 weeks - Using 2004 Med Code</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE62</t>
+  </si>
+  <si>
+    <t>med_chol_2nd_4w</t>
+  </si>
+  <si>
+    <t>HYPTMDCODE41</t>
+  </si>
+  <si>
+    <t>HYPERTENSION LOWERING MEDICATION WITHIN PAST 2 WEEKS (V4)</t>
+  </si>
+  <si>
+    <t>med_bp_2w</t>
+  </si>
+  <si>
+    <t>sr_bp_2w</t>
+  </si>
+  <si>
+    <t>Cholesterol lowering medication w/in 2wks: Using 2004 Med Code -V4</t>
+  </si>
+  <si>
+    <t>med_chol_2w</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE41</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE42</t>
+  </si>
+  <si>
+    <t>HYPTMD41</t>
+  </si>
+  <si>
+    <t>HYPTMDCODE31</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE31</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE32</t>
+  </si>
+  <si>
+    <t>HYPTMD31</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE22</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hypert Med in Past 2 Wks: Self-rptd</t>
+  </si>
+  <si>
+    <t>HYPTMDCODE21</t>
+  </si>
+  <si>
+    <t>HYPTMD21</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE02</t>
+  </si>
+  <si>
+    <t>CHOLMDCODE01</t>
+  </si>
+  <si>
+    <t>HYPTMDCODE01</t>
+  </si>
+  <si>
+    <t>HYPTMD01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHM15 </t>
+  </si>
+  <si>
+    <t>CHM1</t>
   </si>
 </sst>
 </file>
@@ -5005,7 +5071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5037,6 +5103,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10255,13 +10323,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:BE157"/>
+  <dimension ref="A1:BE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10295,157 +10363,157 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="D1" t="s">
         <v>1012</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="H1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="J1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="L1" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="M1" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="N1" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="O1" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="P1" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="Q1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Z1" t="s">
         <v>1243</v>
       </c>
-      <c r="R1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="AB1" t="s">
         <v>1254</v>
       </c>
-      <c r="U1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1268</v>
-      </c>
       <c r="AC1" s="8" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="AD1" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="AE1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AH1" t="s">
         <v>1296</v>
       </c>
-      <c r="AF1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>1311</v>
-      </c>
       <c r="AI1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>1312</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>1327</v>
-      </c>
       <c r="AK1" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="AL1" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AP1" t="s">
         <v>1334</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>1349</v>
       </c>
       <c r="AQ1" t="s">
         <v>59</v>
       </c>
       <c r="AR1" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="AS1" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="AT1" t="s">
-        <v>1370</v>
+        <v>1354</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="AV1" t="s">
-        <v>1472</v>
+        <v>1454</v>
       </c>
       <c r="AW1" t="s">
-        <v>1471</v>
+        <v>1453</v>
       </c>
       <c r="AX1" t="s">
-        <v>1469</v>
+        <v>1451</v>
       </c>
       <c r="AY1" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="BA1" t="s">
-        <v>1405</v>
+        <v>1388</v>
       </c>
       <c r="BE1" s="12" t="s">
         <v>984</v>
@@ -10490,7 +10558,7 @@
         <v>985</v>
       </c>
       <c r="L3" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="s">
         <v>985</v>
@@ -10532,7 +10600,7 @@
         <v>985</v>
       </c>
       <c r="AA3" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="AB3" t="s">
         <v>985</v>
@@ -10625,7 +10693,7 @@
         <v>dmagediag</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
@@ -10637,15 +10705,15 @@
         <v>age</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -10656,7 +10724,7 @@
       <c r="AB6" s="6"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="6" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
@@ -10667,7 +10735,7 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="6" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
@@ -10678,7 +10746,7 @@
       <c r="AT6" s="6"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="6" t="s">
-        <v>1383</v>
+        <v>1367</v>
       </c>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6"/>
@@ -10712,7 +10780,7 @@
         <v>race</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -10772,14 +10840,14 @@
       </c>
       <c r="N13" s="13"/>
       <c r="Z13" s="6" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="AF13" s="13"/>
       <c r="AP13" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="AX13" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.2">
@@ -10791,22 +10859,22 @@
         <v>weight</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="AF14" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="AP14" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="AX14" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
@@ -10818,25 +10886,25 @@
         <v>bmi</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="V15" s="6"/>
       <c r="AD15" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="AM15" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="AV15" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.2">
@@ -10866,22 +10934,22 @@
         <v>wc</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="AP18" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="AX18" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
@@ -10892,30 +10960,23 @@
         <f>INDEX(Harmonized!B:B,MATCH(A19,Harmonized!A:A,0))</f>
         <v>hba1c</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>1076</v>
-      </c>
+      <c r="F19" s="21"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="9"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AR19" s="10" t="s">
-        <v>1361</v>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AR19" s="10"/>
+      <c r="AT19" t="s">
+        <v>1494</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1401</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.2">
@@ -10947,10 +11008,10 @@
         <v>glucosef</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="AS22" t="s">
-        <v>1365</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
@@ -10971,7 +11032,7 @@
         <v>glucose2h</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
@@ -11004,22 +11065,22 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="I27" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="AS27" t="s">
-        <v>1366</v>
+        <v>1350</v>
       </c>
       <c r="BA27" s="6" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.2">
@@ -11031,22 +11092,22 @@
         <v>ldlc</v>
       </c>
       <c r="E28" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="L28" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="AS28" t="s">
-        <v>1367</v>
+        <v>1351</v>
       </c>
       <c r="BA28" s="6" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.2">
@@ -11058,22 +11119,22 @@
         <v>hdlc</v>
       </c>
       <c r="E29" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="L29" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="AS29" t="s">
-        <v>1368</v>
+        <v>1352</v>
       </c>
       <c r="BA29" s="6" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.2">
@@ -11097,22 +11158,22 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="I31" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="P31" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="AI31" s="6" t="s">
-        <v>1319</v>
+        <v>1304</v>
       </c>
       <c r="AS31" t="s">
-        <v>1369</v>
+        <v>1353</v>
       </c>
       <c r="BA31" s="6" t="s">
-        <v>1409</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="32" spans="1:53" ht="16" x14ac:dyDescent="0.2">
@@ -11124,19 +11185,19 @@
         <v>serumcreatinine</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="AI32" s="17" t="s">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="AT32" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
       <c r="AZ32" t="s">
-        <v>1410</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.2">
@@ -11148,14 +11209,14 @@
         <v>urinealbumin</v>
       </c>
       <c r="F33" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="Q33" s="13"/>
       <c r="AT33" t="s">
-        <v>1373</v>
+        <v>1357</v>
       </c>
       <c r="AZ33" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.2">
@@ -11170,10 +11231,10 @@
       <c r="Q34" s="10"/>
       <c r="AI34" s="17"/>
       <c r="AT34" t="s">
-        <v>1372</v>
+        <v>1356</v>
       </c>
       <c r="AZ34" t="s">
-        <v>1411</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.2">
@@ -11194,7 +11255,7 @@
         <v>egfr</v>
       </c>
       <c r="AV36" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.2">
@@ -11225,71 +11286,69 @@
         <v>387</v>
       </c>
       <c r="B45" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="L45" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="46" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="B46" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="T46" s="6" t="s">
-        <v>1167</v>
-      </c>
+        <v>1216</v>
+      </c>
+      <c r="T46" s="6"/>
       <c r="Y46" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="AE46" s="5" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="AO46" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B47" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B48" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="L48" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -11330,16 +11389,16 @@
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="B49" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="U49" s="6" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
@@ -11350,7 +11409,7 @@
       <c r="AB49" s="6"/>
       <c r="AC49" s="9"/>
       <c r="AD49" s="6" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
@@ -11361,7 +11420,7 @@
       <c r="AK49" s="6"/>
       <c r="AL49" s="9"/>
       <c r="AM49" s="6" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="AN49" s="6"/>
       <c r="AO49" s="6"/>
@@ -11372,7 +11431,7 @@
       <c r="AT49" s="6"/>
       <c r="AU49" s="9"/>
       <c r="AV49" s="6" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
       <c r="AW49" s="6"/>
       <c r="AX49" s="6"/>
@@ -11385,16 +11444,16 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="B50" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="U50" s="6" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -11405,7 +11464,7 @@
       <c r="AB50" s="6"/>
       <c r="AC50" s="9"/>
       <c r="AD50" s="6" t="s">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
@@ -11416,7 +11475,7 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="9"/>
       <c r="AM50" s="6" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="AN50" s="6"/>
       <c r="AO50" s="6"/>
@@ -11427,7 +11486,7 @@
       <c r="AT50" s="6"/>
       <c r="AU50" s="9"/>
       <c r="AV50" s="6" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="AW50" s="6"/>
       <c r="AX50" s="6"/>
@@ -11440,10 +11499,10 @@
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>1393</v>
+        <v>1377</v>
       </c>
       <c r="B51" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -11467,7 +11526,7 @@
       <c r="AK51" s="6"/>
       <c r="AL51" s="9"/>
       <c r="AM51" s="6" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="AN51" s="6"/>
       <c r="AO51" s="6"/>
@@ -11478,7 +11537,7 @@
       <c r="AT51" s="6"/>
       <c r="AU51" s="9"/>
       <c r="AV51" s="6" t="s">
-        <v>1390</v>
+        <v>1374</v>
       </c>
       <c r="AW51" s="6"/>
       <c r="AX51" s="6"/>
@@ -11491,10 +11550,10 @@
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="B52" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -11518,7 +11577,7 @@
       <c r="AK52" s="6"/>
       <c r="AL52" s="9"/>
       <c r="AM52" s="6" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="AN52" s="6"/>
       <c r="AO52" s="6"/>
@@ -11529,7 +11588,7 @@
       <c r="AT52" s="6"/>
       <c r="AU52" s="9"/>
       <c r="AV52" s="6" t="s">
-        <v>1391</v>
+        <v>1375</v>
       </c>
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
@@ -11542,10 +11601,10 @@
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
       <c r="B53" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -11569,7 +11628,7 @@
       <c r="AK53" s="6"/>
       <c r="AL53" s="9"/>
       <c r="AM53" s="6" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="AN53" s="6"/>
       <c r="AO53" s="6"/>
@@ -11580,7 +11639,7 @@
       <c r="AT53" s="6"/>
       <c r="AU53" s="9"/>
       <c r="AV53" s="6" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
       <c r="AW53" s="6"/>
       <c r="AX53" s="6"/>
@@ -11593,10 +11652,10 @@
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="B54" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -11621,7 +11680,7 @@
       <c r="AL54" s="9"/>
       <c r="AM54" s="6"/>
       <c r="AN54" s="6" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="AO54" s="6"/>
       <c r="AP54" s="6"/>
@@ -11642,10 +11701,10 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
       <c r="B55" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -11678,7 +11737,7 @@
       <c r="AT55" s="6"/>
       <c r="AU55" s="9"/>
       <c r="AW55" s="6" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
       <c r="AX55" s="6"/>
       <c r="AY55" s="6"/>
@@ -11690,10 +11749,10 @@
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="B56" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -11718,7 +11777,7 @@
       <c r="AL56" s="9"/>
       <c r="AM56" s="6"/>
       <c r="AN56" s="6" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="AO56" s="6"/>
       <c r="AP56" s="6"/>
@@ -11739,52 +11798,52 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="B57" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
       <c r="W57" s="6" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>1330</v>
+        <v>1315</v>
       </c>
       <c r="B58" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
       <c r="W58" s="6"/>
       <c r="AJ58" s="6" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>1331</v>
+        <v>1316</v>
       </c>
       <c r="B59" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
       <c r="W59" s="6"/>
       <c r="AJ59" s="6" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="B60" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
@@ -11799,7 +11858,7 @@
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
       <c r="AK60" s="6" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="AL60" s="9"/>
       <c r="AM60" s="6"/>
@@ -11823,42 +11882,42 @@
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B61" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B62" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B63" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="T63" s="6" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
@@ -11899,16 +11958,16 @@
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B64" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="T64" s="6" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
@@ -11949,16 +12008,16 @@
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="B65" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="T65" s="6" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
@@ -11999,13 +12058,13 @@
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="B66" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
@@ -12046,23 +12105,23 @@
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="B67" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="T67" s="6"/>
       <c r="U67" s="6" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
@@ -12074,7 +12133,7 @@
       <c r="AC67" s="9"/>
       <c r="AD67" s="6"/>
       <c r="AE67" s="6" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
@@ -12084,7 +12143,7 @@
       <c r="AK67" s="6"/>
       <c r="AL67" s="9"/>
       <c r="AM67" s="6" t="s">
-        <v>1380</v>
+        <v>1364</v>
       </c>
       <c r="AN67" s="6"/>
       <c r="AO67" s="6"/>
@@ -12095,7 +12154,7 @@
       <c r="AT67" s="6"/>
       <c r="AU67" s="9"/>
       <c r="AV67" s="6" t="s">
-        <v>1387</v>
+        <v>1371</v>
       </c>
       <c r="AW67" s="6"/>
       <c r="AX67" s="6"/>
@@ -12108,23 +12167,23 @@
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="B68" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="T68" s="6"/>
       <c r="U68" s="6" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
@@ -12136,7 +12195,7 @@
       <c r="AC68" s="9"/>
       <c r="AD68" s="6"/>
       <c r="AE68" s="6" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
@@ -12146,7 +12205,7 @@
       <c r="AK68" s="6"/>
       <c r="AL68" s="9"/>
       <c r="AM68" s="6" t="s">
-        <v>1381</v>
+        <v>1365</v>
       </c>
       <c r="AN68" s="6"/>
       <c r="AO68" s="6"/>
@@ -12157,7 +12216,7 @@
       <c r="AT68" s="6"/>
       <c r="AU68" s="9"/>
       <c r="AV68" s="6" t="s">
-        <v>1386</v>
+        <v>1370</v>
       </c>
       <c r="AW68" s="6"/>
       <c r="AX68" s="6"/>
@@ -12170,18 +12229,18 @@
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="B69" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="M69" s="6" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
@@ -12189,7 +12248,7 @@
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
@@ -12197,7 +12256,7 @@
       <c r="AC69" s="9"/>
       <c r="AD69" s="6"/>
       <c r="AE69" s="6" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="AF69" s="6"/>
       <c r="AG69" s="6"/>
@@ -12207,7 +12266,7 @@
       <c r="AK69" s="6"/>
       <c r="AL69" s="9"/>
       <c r="AM69" s="6" t="s">
-        <v>1378</v>
+        <v>1362</v>
       </c>
       <c r="AN69" s="6"/>
       <c r="AO69" s="6"/>
@@ -12218,7 +12277,7 @@
       <c r="AT69" s="6"/>
       <c r="AU69" s="9"/>
       <c r="AV69" s="6" t="s">
-        <v>1385</v>
+        <v>1369</v>
       </c>
       <c r="AW69" s="6"/>
       <c r="AX69" s="6"/>
@@ -12231,17 +12290,17 @@
     </row>
     <row r="70" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="B70" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="G70" s="6"/>
       <c r="M70" s="6" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
@@ -12249,7 +12308,7 @@
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
@@ -12257,7 +12316,7 @@
       <c r="AC70" s="9"/>
       <c r="AD70" s="6"/>
       <c r="AE70" s="6" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="AF70" s="6"/>
       <c r="AG70" s="6"/>
@@ -12267,7 +12326,7 @@
       <c r="AK70" s="6"/>
       <c r="AL70" s="9"/>
       <c r="AM70" s="6" t="s">
-        <v>1379</v>
+        <v>1363</v>
       </c>
       <c r="AN70" s="6"/>
       <c r="AO70" s="6"/>
@@ -12278,7 +12337,7 @@
       <c r="AT70" s="6"/>
       <c r="AU70" s="9"/>
       <c r="AV70" s="6" t="s">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="AW70" s="6"/>
       <c r="AX70" s="6"/>
@@ -12291,212 +12350,212 @@
     </row>
     <row r="71" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B71" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B72" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B73" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B74" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B75" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="L75" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="U75" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="AD75" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="AM75" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
       <c r="AV75" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B76" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="L76" s="6" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="U76" s="6" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="V76" s="6"/>
       <c r="AD76" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="AM76" s="6" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="AV76" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B77" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B78" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B79" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="80" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B80" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="L80" s="6" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="B81" t="s">
-        <v>1453</v>
+        <v>1436</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="G81" s="6"/>
       <c r="L81" s="6"/>
       <c r="Q81" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="AT81" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="B82" t="s">
-        <v>1454</v>
+        <v>1437</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="L82" s="6"/>
       <c r="AI82" s="16" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>1363</v>
+        <v>1347</v>
       </c>
       <c r="B83" t="s">
-        <v>1455</v>
+        <v>1438</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -12504,202 +12563,202 @@
       <c r="L83" s="6"/>
       <c r="AI83" s="16"/>
       <c r="AS83" t="s">
-        <v>1364</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B84" t="s">
-        <v>1456</v>
+        <v>1439</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B85" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="L85" s="6" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="U85" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
       <c r="AM85" s="6" t="s">
-        <v>1374</v>
+        <v>1358</v>
       </c>
       <c r="AV85" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B86" t="s">
-        <v>1458</v>
+        <v>1441</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="L86" s="6" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="U86" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="AD86" s="6" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
       <c r="AM86" s="6" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
       <c r="AV86" t="s">
-        <v>1416</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="B87" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="Q87" s="6" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="V87" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="AZ87" t="s">
-        <v>1404</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>1402</v>
+        <v>1385</v>
       </c>
       <c r="B88" t="s">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="AV88" s="6" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B89" t="s">
-        <v>1461</v>
+        <v>1444</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B90" t="s">
-        <v>1462</v>
+        <v>1445</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B91" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B92" t="s">
-        <v>1464</v>
+        <v>1447</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B93" t="s">
-        <v>1465</v>
+        <v>1448</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B94" t="s">
-        <v>1466</v>
+        <v>1449</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="B95" t="s">
         <v>205</v>
@@ -12707,30 +12766,30 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="I95" s="14"/>
       <c r="O95" s="6" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="AA95" s="6" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="AG95" s="6" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="AQ95" s="6" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="AY95" s="6" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="B96" t="s">
         <v>207</v>
@@ -12738,30 +12797,30 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="I96" s="14"/>
       <c r="O96" s="6" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="AA96" s="6" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="AG96" s="6" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="AQ96" s="6" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="AY96" s="6" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="B97" t="s">
         <v>206</v>
@@ -12769,30 +12828,30 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="I97" s="14"/>
       <c r="O97" s="6" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="AA97" s="6" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="AG97" s="6" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="AQ97" s="6" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
       <c r="AY97" s="6" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B98" t="s">
         <v>208</v>
@@ -12800,30 +12859,30 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="I98" s="14"/>
       <c r="O98" s="6" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="AA98" s="6" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="AG98" s="6" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="AQ98" s="6" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="AY98" s="6" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B99" t="s">
         <v>646</v>
@@ -12831,28 +12890,28 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="I99" s="14"/>
       <c r="O99" s="6" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="AA99" s="6" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AQ99" s="6" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="AY99" s="6" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="B100" t="s">
         <v>647</v>
@@ -12860,543 +12919,656 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="I100" s="14"/>
       <c r="O100" s="6" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="AA100" s="6" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AQ100" s="6" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="AY100" s="6" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1459</v>
+      </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="E102" s="6"/>
+      <c r="AM101" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AV101" s="6" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>1490</v>
+      </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
+      <c r="I102" s="14"/>
+      <c r="L102" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="U102" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AD102" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AM102" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AV102" s="6" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1460</v>
+      </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+      <c r="AM103" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="AV103" s="6" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1461</v>
+      </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="AM104" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AV104" s="6" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>1014</v>
+        <v>1473</v>
       </c>
       <c r="B105" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K105" s="9"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6" t="s">
-        <v>1468</v>
-      </c>
-      <c r="N105" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="T105" t="s">
-        <v>1251</v>
-      </c>
-      <c r="X105" t="s">
-        <v>1252</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>1253</v>
-      </c>
-      <c r="AA105" s="6" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+        <v>1474</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="L105" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="U105" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AD105" s="6" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>986</v>
+        <v>1476</v>
       </c>
       <c r="B106" t="s">
-        <v>996</v>
-      </c>
-      <c r="BE106" s="6" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+        <v>1477</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="L106" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="U106" s="6" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AD106" s="6" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>987</v>
+        <v>1487</v>
       </c>
       <c r="B107" t="s">
-        <v>997</v>
-      </c>
-      <c r="BE107" s="6" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>988</v>
-      </c>
-      <c r="B108" t="s">
-        <v>998</v>
-      </c>
-      <c r="BE108" s="6" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="B109" t="s">
-        <v>999</v>
-      </c>
-      <c r="BE109" s="6" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BE110" s="6" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="BE111" s="6" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="BE112" s="6" t="s">
-        <v>1002</v>
-      </c>
+        <v>1475</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="L107" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="U107" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="BE113" s="6" t="s">
-        <v>1003</v>
-      </c>
+      <c r="A113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C114" s="9"/>
+        <v>986</v>
+      </c>
+      <c r="B114" t="s">
+        <v>996</v>
+      </c>
       <c r="BE114" s="6" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
     </row>
     <row r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C115" s="9"/>
+        <v>987</v>
+      </c>
+      <c r="B115" t="s">
+        <v>997</v>
+      </c>
       <c r="BE115" s="6" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
     </row>
     <row r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>1080</v>
+        <v>988</v>
+      </c>
+      <c r="B116" t="s">
+        <v>998</v>
       </c>
       <c r="BE116" s="6" t="s">
-        <v>1084</v>
+        <v>993</v>
       </c>
     </row>
     <row r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>1081</v>
+        <v>989</v>
+      </c>
+      <c r="B117" t="s">
+        <v>999</v>
       </c>
       <c r="BE117" s="6" t="s">
-        <v>1085</v>
+        <v>994</v>
       </c>
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>1082</v>
+        <v>990</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1000</v>
       </c>
       <c r="BE118" s="6" t="s">
-        <v>1086</v>
+        <v>995</v>
       </c>
     </row>
     <row r="119" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>1083</v>
-      </c>
+        <v>1006</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C119" s="9"/>
       <c r="BE119" s="6" t="s">
-        <v>1087</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="120" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>1088</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C120" s="9"/>
       <c r="BE120" s="6" t="s">
-        <v>1092</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="121" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>1089</v>
-      </c>
+        <v>1008</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C121" s="9"/>
       <c r="BE121" s="6" t="s">
-        <v>1093</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="122" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>1090</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C122" s="9"/>
       <c r="BE122" s="6" t="s">
-        <v>1094</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="123" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>1091</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C123" s="9"/>
       <c r="BE123" s="6" t="s">
-        <v>1095</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="124" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>1096</v>
+        <v>1073</v>
       </c>
       <c r="BE124" s="6" t="s">
-        <v>1101</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="125" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
       <c r="BE125" s="6" t="s">
-        <v>1102</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="126" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>1098</v>
+        <v>1075</v>
       </c>
       <c r="BE126" s="6" t="s">
-        <v>1103</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="127" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>1099</v>
+        <v>1076</v>
       </c>
       <c r="BE127" s="6" t="s">
-        <v>1104</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="128" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="BE128" s="6" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="129" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>1106</v>
+        <v>1082</v>
       </c>
       <c r="BE129" s="6" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="130" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>1107</v>
+        <v>1083</v>
       </c>
       <c r="BE130" s="6" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="131" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>1110</v>
+        <v>1084</v>
       </c>
       <c r="BE131" s="6" t="s">
-        <v>1125</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="132" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="BE132" s="6" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="133" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="BE133" s="6" t="s">
-        <v>1127</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="134" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="BE134" s="6" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="135" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>1114</v>
+        <v>1092</v>
       </c>
       <c r="BE135" s="6" t="s">
-        <v>1129</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="136" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="BE136" s="6" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="137" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="BE137" s="6" t="s">
-        <v>1131</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="138" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="BE138" s="6" t="s">
-        <v>1132</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="139" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BE139" s="6" t="s">
         <v>1118</v>
-      </c>
-      <c r="BE139" s="6" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="140" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BE140" s="6" t="s">
         <v>1119</v>
-      </c>
-      <c r="BE140" s="6" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="141" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BE141" s="6" t="s">
         <v>1120</v>
-      </c>
-      <c r="BE141" s="6" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="142" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="BE142" s="6" t="s">
         <v>1121</v>
-      </c>
-      <c r="BE142" s="6" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="143" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BE143" s="6" t="s">
         <v>1122</v>
-      </c>
-      <c r="BE143" s="6" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="144" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="BE144" s="6" t="s">
         <v>1123</v>
-      </c>
-      <c r="BE144" s="6" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="145" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="BE145" s="6" t="s">
         <v>1124</v>
-      </c>
-      <c r="BE145" s="6" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="146" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>1140</v>
+        <v>1110</v>
       </c>
       <c r="BE146" s="6" t="s">
-        <v>1152</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="147" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>1141</v>
+        <v>1111</v>
       </c>
       <c r="BE147" s="6" t="s">
-        <v>1153</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>1142</v>
+        <v>1112</v>
       </c>
       <c r="BE148" s="6" t="s">
-        <v>1154</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="149" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>1143</v>
+        <v>1113</v>
       </c>
       <c r="BE149" s="6" t="s">
-        <v>1155</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="150" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="BE150" s="6" t="s">
-        <v>1156</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="151" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
       <c r="BE151" s="6" t="s">
-        <v>1157</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="152" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>1146</v>
+        <v>1116</v>
       </c>
       <c r="BE152" s="6" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="153" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>1147</v>
+        <v>1117</v>
       </c>
       <c r="BE153" s="6" t="s">
-        <v>1159</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="154" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="BE154" s="6" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="BE155" s="6" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="156" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="BE156" s="6" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="157" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BE157" s="6" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BE158" s="6" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BE159" s="6" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BE160" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="BE157" s="6" t="s">
-        <v>1163</v>
+    </row>
+    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BE161" s="6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="BE162" s="6" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BE163" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BE164" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BE165" s="6" t="s">
+        <v>1156</v>
       </c>
     </row>
   </sheetData>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="1056" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23D1939A-01DC-D04A-B884-757BB68C70AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="SEARCH" sheetId="9" r:id="rId11"/>
     <sheet name="TODAY" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5248,6 +5248,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5257,7 +5258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9790,15 +9790,15 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
@@ -9811,13 +9811,13 @@
       <c r="C4" t="s">
         <v>338</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -9827,13 +9827,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -9843,13 +9843,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
@@ -9862,13 +9862,13 @@
       <c r="G7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
@@ -9878,13 +9878,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
@@ -9894,13 +9894,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -9913,13 +9913,13 @@
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -9932,13 +9932,13 @@
       <c r="C11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -9948,13 +9948,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
@@ -9967,13 +9967,13 @@
       <c r="C13" t="s">
         <v>340</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
@@ -9986,13 +9986,13 @@
       <c r="C14" t="s">
         <v>341</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
@@ -10002,13 +10002,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
@@ -10024,13 +10024,13 @@
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
@@ -10046,13 +10046,13 @@
       <c r="H17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
@@ -10065,13 +10065,13 @@
       <c r="C18" t="s">
         <v>342</v>
       </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
@@ -10084,13 +10084,13 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
@@ -10100,13 +10100,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A20,Harmonized!A:A,0))</f>
         <v>insulinf</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
@@ -10116,13 +10116,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
@@ -10135,13 +10135,13 @@
       <c r="L22" t="s">
         <v>321</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
@@ -13735,7 +13735,7 @@
   </sheetPr>
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="136" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="136" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B53" sqref="B53"/>
     </sheetView>
@@ -13805,7 +13805,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>1498</v>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -13910,7 +13910,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>1503</v>
       </c>
     </row>
@@ -13934,7 +13934,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>1499</v>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A20,Harmonized!A:A,0))</f>
         <v>insulinf</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -14021,7 +14021,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A27,Harmonized!A:A,0))</f>
         <v>totalc</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A28,Harmonized!A:A,0))</f>
         <v>ldlc</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>1510</v>
       </c>
     </row>
@@ -14045,7 +14045,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A29,Harmonized!A:A,0))</f>
         <v>hdlc</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>1509</v>
       </c>
     </row>
@@ -14057,7 +14057,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A30,Harmonized!A:A,0))</f>
         <v>vldlc</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -14069,7 +14069,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A31,Harmonized!A:A,0))</f>
         <v>tgl</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A32,Harmonized!A:A,0))</f>
         <v>serumcreatinine</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="22" t="s">
         <v>1519</v>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A33,Harmonized!A:A,0))</f>
         <v>urinealbumin</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="22" t="s">
         <v>1515</v>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
         <f>INDEX(Harmonized!B:B,MATCH(A34,Harmonized!A:A,0))</f>
         <v>urinecreatinine</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="22" t="s">
         <v>1516</v>
       </c>
     </row>
@@ -14151,46 +14151,46 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>1501</v>
       </c>
       <c r="B45" t="s">
         <v>1527</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="22" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="22" t="s">
         <v>1528</v>
       </c>
       <c r="B46" t="s">
         <v>1533</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="22" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>1505</v>
       </c>
       <c r="B47" t="s">
         <v>1534</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="22" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>1514</v>
       </c>
       <c r="B48" t="s">
         <v>1529</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="22" t="s">
         <v>1513</v>
       </c>
     </row>
@@ -14201,40 +14201,40 @@
       <c r="B49" t="s">
         <v>1530</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="22" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="22" t="s">
         <v>1520</v>
       </c>
       <c r="B50" t="s">
         <v>1531</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="22" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="22" t="s">
         <v>1524</v>
       </c>
       <c r="B51" t="s">
         <v>1532</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="22" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="22" t="s">
         <v>1526</v>
       </c>
       <c r="B52" t="s">
         <v>1535</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="22" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -14650,10 +14650,10 @@
   <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14697,18 +14697,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -14736,16 +14736,16 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
@@ -14755,16 +14755,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -14775,16 +14775,16 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -14794,16 +14794,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
@@ -14813,16 +14813,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
@@ -14832,16 +14832,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
@@ -14851,16 +14851,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -14870,16 +14870,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -14889,16 +14889,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -14908,16 +14908,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
@@ -14927,16 +14927,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
@@ -14946,16 +14946,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
@@ -14965,16 +14965,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
@@ -14984,16 +14984,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
@@ -15003,16 +15003,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
@@ -15022,16 +15022,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
@@ -15044,16 +15044,16 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
@@ -15066,16 +15066,16 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
@@ -15085,16 +15085,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
@@ -15107,16 +15107,16 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
@@ -15126,16 +15126,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A23,Harmonized!A:A,0))</f>
         <v>glucoser</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
@@ -15148,16 +15148,16 @@
       <c r="E24" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
@@ -15167,16 +15167,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A25,Harmonized!A:A,0))</f>
         <v>homab</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
@@ -15186,16 +15186,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A26,Harmonized!A:A,0))</f>
         <v>homair</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
@@ -15884,11 +15884,11 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -15932,19 +15932,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
@@ -15972,17 +15972,17 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
@@ -15992,17 +15992,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
@@ -16013,17 +16013,17 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
@@ -16033,17 +16033,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
@@ -16053,17 +16053,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
@@ -16073,17 +16073,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
@@ -16093,17 +16093,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
@@ -16113,17 +16113,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
@@ -16133,17 +16133,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
@@ -16153,17 +16153,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
@@ -16173,17 +16173,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
@@ -16193,17 +16193,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
@@ -16213,17 +16213,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
@@ -16233,17 +16233,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
@@ -16253,17 +16253,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
@@ -16273,17 +16273,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
@@ -16296,17 +16296,17 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
@@ -16319,30 +16319,30 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -16355,30 +16355,30 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
@@ -17213,18 +17213,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
@@ -17237,16 +17237,16 @@
       <c r="D10" t="s">
         <v>372</v>
       </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
@@ -17259,16 +17259,16 @@
       <c r="D11" t="s">
         <v>371</v>
       </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
@@ -17278,16 +17278,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
@@ -17306,16 +17306,16 @@
       <c r="H13" t="s">
         <v>369</v>
       </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
@@ -17334,16 +17334,16 @@
       <c r="H14" t="s">
         <v>303</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
@@ -17362,16 +17362,16 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
@@ -17390,16 +17390,16 @@
       <c r="H16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
@@ -17418,16 +17418,16 @@
       <c r="H17" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
@@ -17446,16 +17446,16 @@
       <c r="H18" t="s">
         <v>370</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
@@ -17474,16 +17474,16 @@
       <c r="H19" t="s">
         <v>383</v>
       </c>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
@@ -17499,16 +17499,16 @@
       <c r="H20" t="s">
         <v>384</v>
       </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
@@ -17856,11 +17856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17914,17 +17914,17 @@
       <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
@@ -17937,15 +17937,15 @@
       <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
@@ -17955,15 +17955,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
@@ -17976,15 +17976,15 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
@@ -17997,15 +17997,15 @@
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
@@ -18018,15 +18018,15 @@
       <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
@@ -18039,15 +18039,15 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
@@ -18060,15 +18060,15 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
@@ -18081,15 +18081,15 @@
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
@@ -18102,15 +18102,15 @@
       <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
@@ -18121,15 +18121,15 @@
         <v>height</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
@@ -18140,15 +18140,15 @@
         <v>weight</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
@@ -18161,15 +18161,15 @@
       <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1834" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E259BB-E9ED-8D4E-83CF-D00A6360501B}"/>
+  <xr:revisionPtr revIDLastSave="2205" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF5340A-4DBB-BE4C-9D73-6906A8833AD3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="2247">
   <si>
     <t>harmonized</t>
   </si>
@@ -6489,6 +6489,681 @@
   </si>
   <si>
     <t>pid</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>mesae1dres06192012</t>
+  </si>
+  <si>
+    <t>gender1</t>
+  </si>
+  <si>
+    <t>age1c</t>
+  </si>
+  <si>
+    <t>MESAID</t>
+  </si>
+  <si>
+    <t>race1c</t>
+  </si>
+  <si>
+    <t>dm031c</t>
+  </si>
+  <si>
+    <t>Exam 1 Diabetes Type</t>
+  </si>
+  <si>
+    <t>dmtype1c</t>
+  </si>
+  <si>
+    <t>DIABETES: SELF-REPORT</t>
+  </si>
+  <si>
+    <t>DIABETES MEDS, TYPE</t>
+  </si>
+  <si>
+    <t>DIABETES MEDS, AGE STARTED USE</t>
+  </si>
+  <si>
+    <t>DIABETES MEDS, AGE STARTED UNKNOWN</t>
+  </si>
+  <si>
+    <t>diabet1</t>
+  </si>
+  <si>
+    <t>dbhxtyp1</t>
+  </si>
+  <si>
+    <t>dbage1</t>
+  </si>
+  <si>
+    <t>dbageu1</t>
+  </si>
+  <si>
+    <t>WAS INSULIN FIRST DIABETES MEDICINE</t>
+  </si>
+  <si>
+    <t>dbinsul1</t>
+  </si>
+  <si>
+    <t>EVER CONSUMED ALCOHOLIC BEVERAGES</t>
+  </si>
+  <si>
+    <t>alcohol1</t>
+  </si>
+  <si>
+    <t>ALCOHOL: CURRENT USE</t>
+  </si>
+  <si>
+    <t>curalc1</t>
+  </si>
+  <si>
+    <t>CIGAR SMOKING STATUS</t>
+  </si>
+  <si>
+    <t>cgr1c</t>
+  </si>
+  <si>
+    <t>PIPE SMOKING STATUS</t>
+  </si>
+  <si>
+    <t>pip1c</t>
+  </si>
+  <si>
+    <t>CHEWING TOBACCO USE</t>
+  </si>
+  <si>
+    <t>chew1c</t>
+  </si>
+  <si>
+    <t>Insulin or oral hypoglycemics for diabetes?</t>
+  </si>
+  <si>
+    <t>diabins1</t>
+  </si>
+  <si>
+    <t>K-channel blockers to enhance insulin secretion for diabetics</t>
+  </si>
+  <si>
+    <t>kblkr1c</t>
+  </si>
+  <si>
+    <t>htcm1</t>
+  </si>
+  <si>
+    <t>wtlb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bmi1c </t>
+  </si>
+  <si>
+    <t>waistcm1</t>
+  </si>
+  <si>
+    <t>Serum Insulin recoded to E5 Elecsys scale (mU/L)</t>
+  </si>
+  <si>
+    <t>inslnr1t</t>
+  </si>
+  <si>
+    <t>Insulins</t>
+  </si>
+  <si>
+    <t>insln1c</t>
+  </si>
+  <si>
+    <t>Exam 1 Fasting Glucose- Calibrated</t>
+  </si>
+  <si>
+    <t>glucos1c</t>
+  </si>
+  <si>
+    <t>chol1</t>
+  </si>
+  <si>
+    <t>ldl1</t>
+  </si>
+  <si>
+    <t>hdl1</t>
+  </si>
+  <si>
+    <t>trig1</t>
+  </si>
+  <si>
+    <t>cepgfr1c</t>
+  </si>
+  <si>
+    <t>ualbcre1</t>
+  </si>
+  <si>
+    <t>ucreat1</t>
+  </si>
+  <si>
+    <t>creatin1</t>
+  </si>
+  <si>
+    <t>ualbumn1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>mesaid</t>
+  </si>
+  <si>
+    <t>age2c</t>
+  </si>
+  <si>
+    <t>mesae2dres06222012</t>
+  </si>
+  <si>
+    <t>dm032c</t>
+  </si>
+  <si>
+    <t>Exam x Diabetes mellitus by 2003 ADA fasting criteria algorithm</t>
+  </si>
+  <si>
+    <t>DIABETES, OR HIGH BLOOD SUGAR OR SUGAR IN YOUR URINE</t>
+  </si>
+  <si>
+    <t>eydiab2</t>
+  </si>
+  <si>
+    <t>diabins2</t>
+  </si>
+  <si>
+    <t>kblkr2c</t>
+  </si>
+  <si>
+    <t>fhxdb2</t>
+  </si>
+  <si>
+    <t>Hypertension Medication</t>
+  </si>
+  <si>
+    <t>htnmed1c</t>
+  </si>
+  <si>
+    <t>Any lipid-lowering medication</t>
+  </si>
+  <si>
+    <t>lipid1c</t>
+  </si>
+  <si>
+    <t>htnmed2c</t>
+  </si>
+  <si>
+    <t>lipid2c</t>
+  </si>
+  <si>
+    <t>htcm2</t>
+  </si>
+  <si>
+    <t>wtlb2</t>
+  </si>
+  <si>
+    <t>bmi2c</t>
+  </si>
+  <si>
+    <t>waistcm2</t>
+  </si>
+  <si>
+    <t>Serum Hemoglobin A1c</t>
+  </si>
+  <si>
+    <t>glucos2c</t>
+  </si>
+  <si>
+    <t>chol2</t>
+  </si>
+  <si>
+    <t>ldl2</t>
+  </si>
+  <si>
+    <t>hdl2</t>
+  </si>
+  <si>
+    <t>trig2</t>
+  </si>
+  <si>
+    <t>ualbcre2</t>
+  </si>
+  <si>
+    <t>ucreat2</t>
+  </si>
+  <si>
+    <t>ualbumn2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>mesae3dres06222012</t>
+  </si>
+  <si>
+    <t>age3c</t>
+  </si>
+  <si>
+    <t>dm033c</t>
+  </si>
+  <si>
+    <t>diabins3</t>
+  </si>
+  <si>
+    <t>kblkr3c</t>
+  </si>
+  <si>
+    <t>insln3c</t>
+  </si>
+  <si>
+    <t>htcm3</t>
+  </si>
+  <si>
+    <t>wtlb3</t>
+  </si>
+  <si>
+    <t>bmi3c</t>
+  </si>
+  <si>
+    <t>glucos3c</t>
+  </si>
+  <si>
+    <t>chol3</t>
+  </si>
+  <si>
+    <t>ldl3</t>
+  </si>
+  <si>
+    <t>hdl3</t>
+  </si>
+  <si>
+    <t>trig3</t>
+  </si>
+  <si>
+    <t>ucreat3</t>
+  </si>
+  <si>
+    <t>ualbumn3</t>
+  </si>
+  <si>
+    <t>ualbcre3</t>
+  </si>
+  <si>
+    <t>creatin3</t>
+  </si>
+  <si>
+    <t>lipid3c</t>
+  </si>
+  <si>
+    <t>htnmed3c</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>mesae4dres06222012</t>
+  </si>
+  <si>
+    <t>age4c</t>
+  </si>
+  <si>
+    <t>hisp1</t>
+  </si>
+  <si>
+    <t>dm034c</t>
+  </si>
+  <si>
+    <t>diabins4</t>
+  </si>
+  <si>
+    <t>kblkr4c</t>
+  </si>
+  <si>
+    <t>insln4c</t>
+  </si>
+  <si>
+    <t>htcm4</t>
+  </si>
+  <si>
+    <t>wtlb4</t>
+  </si>
+  <si>
+    <t>bmi4c</t>
+  </si>
+  <si>
+    <t>SEATED BP: SYSTOLIC 1ST READING (mmHg)</t>
+  </si>
+  <si>
+    <t>SEATED BP: DIASTOLIC 1ST READING (mmHg)</t>
+  </si>
+  <si>
+    <t>SEATED BP: SYSTOLIC 2ND READING (mmHg)</t>
+  </si>
+  <si>
+    <t>SEATED BP: DIASTOLIC 2ND READING (mmHg)</t>
+  </si>
+  <si>
+    <t>SEATED BP: SYSTOLIC 3RD READING (mmHg)</t>
+  </si>
+  <si>
+    <t>SEATED BP: DIASTOLIC 3RD READING (mmHg)</t>
+  </si>
+  <si>
+    <t>s2bp4</t>
+  </si>
+  <si>
+    <t>d2bp4</t>
+  </si>
+  <si>
+    <t>s3bp4</t>
+  </si>
+  <si>
+    <t>d3bp4</t>
+  </si>
+  <si>
+    <t>s1bp4</t>
+  </si>
+  <si>
+    <t>d1bp4</t>
+  </si>
+  <si>
+    <t>waistcm3</t>
+  </si>
+  <si>
+    <t>waistcm4</t>
+  </si>
+  <si>
+    <t>cepgfr4c</t>
+  </si>
+  <si>
+    <t>Hip Circumference (cm)</t>
+  </si>
+  <si>
+    <t>hipcm4</t>
+  </si>
+  <si>
+    <t>glucos4c</t>
+  </si>
+  <si>
+    <t>chol4</t>
+  </si>
+  <si>
+    <t>ldl4</t>
+  </si>
+  <si>
+    <t>hdl4</t>
+  </si>
+  <si>
+    <t>trig4</t>
+  </si>
+  <si>
+    <t>creatin4</t>
+  </si>
+  <si>
+    <t>lipid4c</t>
+  </si>
+  <si>
+    <t>htnmed4c</t>
+  </si>
+  <si>
+    <t>s1bp3</t>
+  </si>
+  <si>
+    <t>d1bp3</t>
+  </si>
+  <si>
+    <t>s2bp3</t>
+  </si>
+  <si>
+    <t>d2bp3</t>
+  </si>
+  <si>
+    <t>s3bp3</t>
+  </si>
+  <si>
+    <t>d3bp3</t>
+  </si>
+  <si>
+    <t>hipcm3</t>
+  </si>
+  <si>
+    <t>s1bp2</t>
+  </si>
+  <si>
+    <t>d1bp2</t>
+  </si>
+  <si>
+    <t>s2bp2</t>
+  </si>
+  <si>
+    <t>d2bp2</t>
+  </si>
+  <si>
+    <t>s3bp2</t>
+  </si>
+  <si>
+    <t>d3bp2</t>
+  </si>
+  <si>
+    <t>hipcm2</t>
+  </si>
+  <si>
+    <t>s1bp1</t>
+  </si>
+  <si>
+    <t>d1bp1</t>
+  </si>
+  <si>
+    <t>s2bp1</t>
+  </si>
+  <si>
+    <t>d2bp1</t>
+  </si>
+  <si>
+    <t>s3bp1</t>
+  </si>
+  <si>
+    <t>d3bp1</t>
+  </si>
+  <si>
+    <t>hipcm1</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>AGE5C</t>
+  </si>
+  <si>
+    <t>GENDER1</t>
+  </si>
+  <si>
+    <t>RACE1C</t>
+  </si>
+  <si>
+    <t>HISP1</t>
+  </si>
+  <si>
+    <t>DM035C</t>
+  </si>
+  <si>
+    <t>DIABHX5</t>
+  </si>
+  <si>
+    <t>DIABETES: TAKING MEDICATION</t>
+  </si>
+  <si>
+    <t>DIABETES: DEVELOPED SINCE LAST MESA VISIT</t>
+  </si>
+  <si>
+    <t>DIAB5</t>
+  </si>
+  <si>
+    <t>DBHXTYP5</t>
+  </si>
+  <si>
+    <t>KBLKR5C</t>
+  </si>
+  <si>
+    <t>INSULIN5</t>
+  </si>
+  <si>
+    <t>DIABINS5</t>
+  </si>
+  <si>
+    <t>INSLN5C</t>
+  </si>
+  <si>
+    <t>HTCM5</t>
+  </si>
+  <si>
+    <t>WTLB5</t>
+  </si>
+  <si>
+    <t>BMI5C</t>
+  </si>
+  <si>
+    <t>WAISTCM5</t>
+  </si>
+  <si>
+    <t>HBA1C5</t>
+  </si>
+  <si>
+    <t>GLUCOSE5</t>
+  </si>
+  <si>
+    <t>CHOL5</t>
+  </si>
+  <si>
+    <t>LDL5</t>
+  </si>
+  <si>
+    <t>HDL5</t>
+  </si>
+  <si>
+    <t>TRIG5</t>
+  </si>
+  <si>
+    <t>CREATIN5T</t>
+  </si>
+  <si>
+    <t>UALBCRE5</t>
+  </si>
+  <si>
+    <t>UCREAT5</t>
+  </si>
+  <si>
+    <t>UALBUMN5</t>
+  </si>
+  <si>
+    <t>HTNMED5C</t>
+  </si>
+  <si>
+    <t>LIPID5C</t>
+  </si>
+  <si>
+    <t>S1BP5</t>
+  </si>
+  <si>
+    <t>D1BP5</t>
+  </si>
+  <si>
+    <t>S2BP5</t>
+  </si>
+  <si>
+    <t>D2BP5</t>
+  </si>
+  <si>
+    <t>S3BP5</t>
+  </si>
+  <si>
+    <t>D3BP5</t>
+  </si>
+  <si>
+    <t>HIPCM5</t>
+  </si>
+  <si>
+    <t>mesae5_drepos_20210920</t>
+  </si>
+  <si>
+    <t>CEPGFR5C</t>
+  </si>
+  <si>
+    <t>dia_ada</t>
+  </si>
+  <si>
+    <t>dia_type_e1</t>
+  </si>
+  <si>
+    <t>dia_sr</t>
+  </si>
+  <si>
+    <t>dia_med_type</t>
+  </si>
+  <si>
+    <t>dia_med</t>
+  </si>
+  <si>
+    <t>dia_dx_lv</t>
+  </si>
+  <si>
+    <t>dia_med_age_unk</t>
+  </si>
+  <si>
+    <t>dia_med_age_st</t>
+  </si>
+  <si>
+    <t>dia_med_ins</t>
+  </si>
+  <si>
+    <t>dia_med_ins_oh</t>
+  </si>
+  <si>
+    <t>dia_med_ins_1st</t>
+  </si>
+  <si>
+    <t>dia_med_kc</t>
+  </si>
+  <si>
+    <t>dia_urine</t>
+  </si>
+  <si>
+    <t>ins_r</t>
+  </si>
+  <si>
+    <t>glucosef_unk</t>
+  </si>
+  <si>
+    <t>hba1c_unk</t>
+  </si>
+  <si>
+    <t>alc_ever</t>
+  </si>
+  <si>
+    <t>alc_curr</t>
+  </si>
+  <si>
+    <t>smk_cig</t>
+  </si>
+  <si>
+    <t>smk_pipe</t>
+  </si>
+  <si>
+    <t>smk_tob</t>
+  </si>
+  <si>
+    <t>med_bp</t>
+  </si>
+  <si>
+    <t>med_lipid</t>
+  </si>
+  <si>
+    <t>insln2c</t>
+  </si>
+  <si>
+    <t>mesaexam2dm_drepos_20220301</t>
   </si>
 </sst>
 </file>
@@ -6688,7 +7363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6731,6 +7406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7523,14 +8199,1178 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3646C27-E1BC-46EF-93BF-ADC4A59A2FBF}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="207" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="1.83203125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>2246</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>2125</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>2182</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
+        <v>id</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A3,Harmonized!A:A,0))</f>
+        <v>study_id</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
+        <v>dmduration</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
+        <v>dmagediag</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
+        <v>age</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
+        <v>female</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
+        <v>race</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
+        <v>ethnicity</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2128</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
+        <v>alcohol</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
+        <v>smoking</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
+        <v>dmfamilyhistory</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
+        <v>height</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
+        <v>weight</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2112</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2134</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
+        <v>bmi</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2135</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
+        <v>sbp</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
+        <v>dbp</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
+        <v>wc</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2094</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2149</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A19,Harmonized!A:A,0))</f>
+        <v>hba1c</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A20,Harmonized!A:A,0))</f>
+        <v>insulinf</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
+        <v>cpeptidef</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A22,Harmonized!A:A,0))</f>
+        <v>glucosef</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2114</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2153</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A23,Harmonized!A:A,0))</f>
+        <v>glucoser</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A24,Harmonized!A:A,0))</f>
+        <v>glucose2h</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A25,Harmonized!A:A,0))</f>
+        <v>totalc</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A26,Harmonized!A:A,0))</f>
+        <v>ldlc</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>2116</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>2155</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A27,Harmonized!A:A,0))</f>
+        <v>hdlc</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A28,Harmonized!A:A,0))</f>
+        <v>vldlc</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A29,Harmonized!A:A,0))</f>
+        <v>tgl</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>2157</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A30,Harmonized!A:A,0))</f>
+        <v>serumcreatinine</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="M30" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A31,Harmonized!A:A,0))</f>
+        <v>urinealbumin</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="M31" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A32,Harmonized!A:A,0))</f>
+        <v>urinecreatinine</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2119</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A33,Harmonized!A:A,0))</f>
+        <v>uacr</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2101</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A34,Harmonized!A:A,0))</f>
+        <v>egfr</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="M34" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A35,Harmonized!A:A,0))</f>
+        <v>ast</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A36,Harmonized!A:A,0))</f>
+        <v>alt</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2107</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="6" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="6" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="6" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M42" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="6" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="M43" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="M44" s="6" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="6" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="6" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2108</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2130</v>
+      </c>
+      <c r="M48" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2109</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2131</v>
+      </c>
+      <c r="M49" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="6" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2245</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>2132</v>
+      </c>
+      <c r="M50" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="6" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="M54" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="6" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="6" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="6" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="6" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="6" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="6" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2160</v>
+      </c>
+      <c r="M66" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="6" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I67" t="s">
+        <v>2123</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M67" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="6" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="I70" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="I71" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="I72" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="6" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>644</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="6" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>645</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="I74" s="6" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>2145</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="I76" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>2152</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16093,15 +17933,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F563F0C8-8BC7-416C-B3A7-24E90EB5E8C5}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:CW103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BR49" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BZ59" sqref="BZ59"/>
+      <selection pane="bottomRight" activeCell="BR34" sqref="BR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2205" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF5340A-4DBB-BE4C-9D73-6906A8833AD3}"/>
+  <xr:revisionPtr revIDLastSave="2217" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D812EE87-D0FD-734C-B189-F25E376AE60A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="2247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="2250">
   <si>
     <t>harmonized</t>
   </si>
@@ -7164,6 +7164,15 @@
   </si>
   <si>
     <t>mesaexam2dm_drepos_20220301</t>
+  </si>
+  <si>
+    <t>ULAB</t>
+  </si>
+  <si>
+    <t>UCRE</t>
+  </si>
+  <si>
+    <t>CHOLESTEROL</t>
   </si>
 </sst>
 </file>
@@ -7397,6 +7406,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7406,7 +7418,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8203,9 +8214,9 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="207" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="207" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A44" sqref="A44"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8243,7 +8254,7 @@
       <c r="F1" t="s">
         <v>2077</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" t="s">
         <v>2246</v>
       </c>
       <c r="H1" s="23" t="s">
@@ -13006,7 +13017,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:B38"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13103,15 +13114,15 @@
       <c r="L3" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
@@ -13124,13 +13135,13 @@
       <c r="C4" t="s">
         <v>338</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -13140,13 +13151,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -13156,13 +13167,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
@@ -13175,13 +13186,13 @@
       <c r="G7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
@@ -13191,13 +13202,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
@@ -13207,13 +13218,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -13226,13 +13237,13 @@
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -13245,13 +13256,13 @@
       <c r="C11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -13261,13 +13272,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
@@ -13280,13 +13291,13 @@
       <c r="C13" t="s">
         <v>340</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
@@ -13299,13 +13310,13 @@
       <c r="C14" t="s">
         <v>341</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
@@ -13315,13 +13326,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
@@ -13337,13 +13348,13 @@
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
@@ -13359,13 +13370,13 @@
       <c r="H17" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
@@ -13378,13 +13389,13 @@
       <c r="C18" t="s">
         <v>342</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
@@ -13397,13 +13408,13 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
@@ -13413,13 +13424,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A20,Harmonized!A:A,0))</f>
         <v>insulinf</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
@@ -13429,13 +13440,13 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
@@ -13448,13 +13459,13 @@
       <c r="L22" t="s">
         <v>321</v>
       </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
@@ -13792,10 +13803,10 @@
   <dimension ref="A1:BE165"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AM17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20245,13 +20256,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824997C4-ECFA-43DC-9501-1C6C5C097BCA}">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20295,18 +20306,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -20334,16 +20345,16 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
@@ -20353,16 +20364,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -20373,16 +20384,16 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -20392,16 +20403,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
@@ -20411,16 +20422,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
@@ -20430,16 +20441,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
@@ -20449,16 +20460,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -20468,16 +20479,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -20487,16 +20498,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -20506,16 +20517,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
@@ -20525,16 +20536,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
@@ -20544,16 +20555,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
@@ -20563,16 +20574,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
@@ -20582,16 +20593,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
@@ -20601,16 +20612,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
@@ -20620,16 +20631,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
@@ -20642,16 +20653,16 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
@@ -20664,16 +20675,16 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
@@ -20683,16 +20694,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A21,Harmonized!A:A,0))</f>
         <v>cpeptidef</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
@@ -20705,16 +20716,16 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
@@ -20724,16 +20735,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A23,Harmonized!A:A,0))</f>
         <v>glucoser</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
@@ -20746,16 +20757,16 @@
       <c r="E24" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
@@ -20765,16 +20776,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A25,Harmonized!A:A,0))</f>
         <v>homab</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
@@ -20784,688 +20795,734 @@
         <f>INDEX(Harmonized!B:B,MATCH(A26,Harmonized!A:A,0))</f>
         <v>homair</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B27" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A27,Harmonized!A:A,0))</f>
-        <v>ldlc</v>
+        <v>totalc</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
-      </c>
+        <v>2249</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A28,Harmonized!A:A,0))</f>
-        <v>hdlc</v>
+        <v>ldlc</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A29,Harmonized!A:A,0))</f>
-        <v>vldlc</v>
+        <v>hdlc</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A30,Harmonized!A:A,0))</f>
-        <v>tgl</v>
+        <v>vldlc</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A31,Harmonized!A:A,0))</f>
-        <v>serumcreatinine</v>
+        <v>tgl</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A32,Harmonized!A:A,0))</f>
-        <v>urinealbumin</v>
+        <v>serumcreatinine</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A33,Harmonized!A:A,0))</f>
-        <v>urinecreatinine</v>
+        <v>urinealbumin</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A34,Harmonized!A:A,0))</f>
-        <v>uacr</v>
+        <v>urinecreatinine</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="str">
         <f>INDEX(Harmonized!B:B,MATCH(A35,Harmonized!A:A,0))</f>
+        <v>uacr</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A36,Harmonized!A:A,0))</f>
         <v>egfr</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A37,Harmonized!A:A,0))</f>
+        <v>ast</v>
+      </c>
+      <c r="E37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="str">
+        <f>INDEX(Harmonized!B:B,MATCH(A38,Harmonized!A:A,0))</f>
+        <v>alt</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H43" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="H44" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>149</v>
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" t="s">
-        <v>154</v>
+        <v>173</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" t="s">
-        <v>212</v>
+        <v>166</v>
+      </c>
+      <c r="G55" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
-      </c>
-      <c r="H84" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="D84" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B88" t="s">
-        <v>307</v>
-      </c>
-      <c r="F88" t="s">
-        <v>302</v>
+        <v>294</v>
+      </c>
+      <c r="H88" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
         <v>306</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>309</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>11</v>
       </c>
     </row>
@@ -21481,12 +21538,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BEC307-7012-42C0-8F8D-AEA3F585C15F}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21530,19 +21587,19 @@
         <f>INDEX(Harmonized!B:B,MATCH(A2,Harmonized!A:A,0))</f>
         <v>id</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
@@ -21570,17 +21627,17 @@
       <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
@@ -21590,17 +21647,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A4,Harmonized!A:A,0))</f>
         <v>dmduration</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
@@ -21611,17 +21668,17 @@
         <v>dmagediag</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
@@ -21631,17 +21688,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A6,Harmonized!A:A,0))</f>
         <v>age</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
@@ -21651,17 +21708,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A7,Harmonized!A:A,0))</f>
         <v>female</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
@@ -21671,17 +21728,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A8,Harmonized!A:A,0))</f>
         <v>race</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
@@ -21691,17 +21748,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
@@ -21711,17 +21768,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A10,Harmonized!A:A,0))</f>
         <v>alcohol</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
@@ -21731,17 +21788,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A11,Harmonized!A:A,0))</f>
         <v>smoking</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
@@ -21751,17 +21808,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
@@ -21771,17 +21828,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A13,Harmonized!A:A,0))</f>
         <v>height</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
@@ -21791,17 +21848,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A14,Harmonized!A:A,0))</f>
         <v>weight</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
@@ -21811,17 +21868,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A15,Harmonized!A:A,0))</f>
         <v>bmi</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
@@ -21831,17 +21888,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A16,Harmonized!A:A,0))</f>
         <v>sbp</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
@@ -21851,17 +21908,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A17,Harmonized!A:A,0))</f>
         <v>dbp</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
@@ -21871,17 +21928,17 @@
         <f>INDEX(Harmonized!B:B,MATCH(A18,Harmonized!A:A,0))</f>
         <v>wc</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
@@ -21894,17 +21951,17 @@
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
@@ -21917,30 +21974,30 @@
       <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -21953,30 +22010,30 @@
       <c r="E22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
@@ -22656,11 +22713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55874760-86AA-41EB-A2D6-050D3575AF4D}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22811,18 +22868,18 @@
         <f>INDEX(Harmonized!B:B,MATCH(A9,Harmonized!A:A,0))</f>
         <v>ethnicity</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
@@ -22835,16 +22892,16 @@
       <c r="D10" t="s">
         <v>370</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
@@ -22857,16 +22914,16 @@
       <c r="D11" t="s">
         <v>369</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
@@ -22876,16 +22933,16 @@
         <f>INDEX(Harmonized!B:B,MATCH(A12,Harmonized!A:A,0))</f>
         <v>dmfamilyhistory</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
@@ -22904,16 +22961,16 @@
       <c r="H13" t="s">
         <v>367</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
@@ -22932,16 +22989,16 @@
       <c r="H14" t="s">
         <v>303</v>
       </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
@@ -22960,16 +23017,16 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
@@ -22988,16 +23045,16 @@
       <c r="H16" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
@@ -23016,16 +23073,16 @@
       <c r="H17" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
@@ -23044,16 +23101,16 @@
       <c r="H18" t="s">
         <v>368</v>
       </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
@@ -23072,16 +23129,16 @@
       <c r="H19" t="s">
         <v>381</v>
       </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
@@ -23097,16 +23154,16 @@
       <c r="H20" t="s">
         <v>382</v>
       </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
@@ -23285,13 +23342,13 @@
         <v>urinealbumin</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -23303,13 +23360,13 @@
         <v>urinecreatinine</v>
       </c>
       <c r="D34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -23455,10 +23512,10 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -23512,17 +23569,17 @@
       <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
@@ -23535,15 +23592,15 @@
       <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
@@ -23553,15 +23610,15 @@
         <f>INDEX(Harmonized!B:B,MATCH(A5,Harmonized!A:A,0))</f>
         <v>dmagediag</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
@@ -23574,15 +23631,15 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
@@ -23595,15 +23652,15 @@
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
@@ -23616,15 +23673,15 @@
       <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
@@ -23637,15 +23694,15 @@
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
@@ -23658,15 +23715,15 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
@@ -23679,15 +23736,15 @@
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
@@ -23700,15 +23757,15 @@
       <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
@@ -23719,15 +23776,15 @@
         <v>height</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
@@ -23738,15 +23795,15 @@
         <v>weight</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
@@ -23759,15 +23816,15 @@
       <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2217" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D812EE87-D0FD-734C-B189-F25E376AE60A}"/>
+  <xr:revisionPtr revIDLastSave="2222" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5552DD7-E038-CF43-B4AF-58FD49FFAD91}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="2250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="2249">
   <si>
     <t>harmonized</t>
   </si>
@@ -5283,9 +5283,6 @@
   </si>
   <si>
     <t>AGE AT EXAM 1 (VERIFIED AT EXAM 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RACE </t>
   </si>
   <si>
     <t>baf07</t>
@@ -8243,37 +8240,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D1" t="s">
         <v>2022</v>
       </c>
-      <c r="D1" t="s">
-        <v>2023</v>
-      </c>
       <c r="E1" s="23" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="H1" s="23" t="s">
+        <v>2103</v>
+      </c>
+      <c r="I1" t="s">
         <v>2104</v>
       </c>
-      <c r="I1" t="s">
-        <v>2105</v>
-      </c>
       <c r="J1" s="23" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K1" t="s">
         <v>2125</v>
       </c>
-      <c r="K1" t="s">
-        <v>2126</v>
-      </c>
       <c r="L1" s="23" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8294,22 +8291,22 @@
         <v>study_id</v>
       </c>
       <c r="D3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="K3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="M3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8340,19 +8337,19 @@
         <v>age</v>
       </c>
       <c r="D6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="I6" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="K6" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M6" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8364,19 +8361,19 @@
         <v>female</v>
       </c>
       <c r="D7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M7" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8388,19 +8385,19 @@
         <v>race</v>
       </c>
       <c r="D8" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F8" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="I8" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="K8" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="M8" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8412,19 +8409,19 @@
         <v>ethnicity</v>
       </c>
       <c r="D9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="I9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="K9" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="M9" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -8454,7 +8451,7 @@
         <v>dmfamilyhistory</v>
       </c>
       <c r="G12" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -8466,19 +8463,19 @@
         <v>height</v>
       </c>
       <c r="D13" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="I13" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="K13" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8490,19 +8487,19 @@
         <v>weight</v>
       </c>
       <c r="D14" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F14" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="I14" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="K14" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="M14" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8514,19 +8511,19 @@
         <v>bmi</v>
       </c>
       <c r="D15" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F15" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="I15" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="K15" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="M15" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -8558,19 +8555,19 @@
         <v>wc</v>
       </c>
       <c r="D18" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F18" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="I18" t="s">
+        <v>2147</v>
+      </c>
+      <c r="K18" t="s">
         <v>2148</v>
       </c>
-      <c r="K18" t="s">
-        <v>2149</v>
-      </c>
       <c r="M18" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -8609,16 +8606,16 @@
         <v>glucosef</v>
       </c>
       <c r="F22" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="I22" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K22" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="M22" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8648,20 +8645,20 @@
         <v>totalc</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G25" s="6"/>
       <c r="I25" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="K25" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="M25" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8673,20 +8670,20 @@
         <v>ldlc</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="G26" s="6"/>
       <c r="I26" s="6" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="M26" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -8698,20 +8695,20 @@
         <v>hdlc</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="M27" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -8732,20 +8729,20 @@
         <v>tgl</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8757,16 +8754,16 @@
         <v>serumcreatinine</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="M30" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -8778,17 +8775,17 @@
         <v>urinealbumin</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G31" s="6"/>
       <c r="I31" s="6" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="M31" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -8800,16 +8797,16 @@
         <v>urinecreatinine</v>
       </c>
       <c r="D32" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="F32" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="I32" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="M32" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8821,16 +8818,16 @@
         <v>uacr</v>
       </c>
       <c r="D33" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F33" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M33" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -8842,15 +8839,15 @@
         <v>egfr</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="K34" s="6" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="M34" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -8878,507 +8875,507 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="6" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B39" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F39" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="I39" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="K39" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="M39" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>2029</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2223</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="6" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B41" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="6" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B42" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="M42" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="6" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B43" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D43" s="6"/>
       <c r="M43" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="6" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B44" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D44" s="6"/>
       <c r="M44" s="6" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B45" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="6" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B46" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>2039</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2232</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="6" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>2051</v>
       </c>
-      <c r="B48" t="s">
-        <v>2231</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>2052</v>
-      </c>
       <c r="F48" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="I48" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="K48" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M48" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>2053</v>
       </c>
-      <c r="B49" t="s">
-        <v>2233</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2054</v>
-      </c>
       <c r="F49" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="I49" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="K49" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M49" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>2061</v>
       </c>
-      <c r="B50" t="s">
-        <v>2230</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>2062</v>
-      </c>
       <c r="F50" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="M50" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="6" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>2080</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2234</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>2081</v>
       </c>
       <c r="G51" s="6"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>2059</v>
       </c>
-      <c r="B54" t="s">
-        <v>2235</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>2060</v>
-      </c>
       <c r="M54" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>2063</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="6" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B58" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
       </c>
       <c r="M58" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="6" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>2041</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>2043</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>2045</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2240</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="6" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>2047</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2241</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>2049</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2242</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="6" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>2085</v>
       </c>
-      <c r="B66" t="s">
-        <v>2243</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>2086</v>
-      </c>
       <c r="F66" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="I66" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="K66" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="M66" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>2087</v>
       </c>
-      <c r="B67" t="s">
-        <v>2244</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>2088</v>
-      </c>
       <c r="F67" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I67" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="K67" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="M67" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="6" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B69" t="s">
         <v>205</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G69" s="6"/>
       <c r="I69" s="6" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="6" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B70" t="s">
         <v>207</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="G70" s="6"/>
       <c r="I70" s="6" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="6" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B71" t="s">
         <v>206</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G71" s="6"/>
       <c r="I71" s="6" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="6" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B72" t="s">
         <v>208</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="6" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B73" t="s">
         <v>644</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G73" s="6"/>
       <c r="I73" s="6" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="6" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B74" t="s">
         <v>645</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="G74" s="6"/>
       <c r="I74" s="6" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="6" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B76" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="G76" s="6"/>
       <c r="I76" s="6" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
   </sheetData>
@@ -13803,10 +13800,10 @@
   <dimension ref="A1:BE165"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AM17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomRight" activeCell="AV7" sqref="AV7:AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14247,6 +14244,15 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="8" spans="1:57">
       <c r="A8" t="s">
@@ -14261,6 +14267,15 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="9" spans="1:57">
       <c r="A9" t="s">
@@ -17948,11 +17963,11 @@
   </sheetPr>
   <dimension ref="A1:CW103"/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR34" sqref="BR34"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17986,7 +18001,7 @@
         <v>1534</v>
       </c>
       <c r="D1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E1" t="s">
         <v>1537</v>
@@ -18034,250 +18049,250 @@
         <v>1617</v>
       </c>
       <c r="T1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="U1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="V1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="W1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="X1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="Y1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="Z1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="AA1" s="23" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AB1" t="s">
         <v>1653</v>
       </c>
-      <c r="AB1" t="s">
-        <v>1654</v>
-      </c>
       <c r="AC1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AD1" t="s">
         <v>1658</v>
       </c>
-      <c r="AD1" t="s">
-        <v>1659</v>
-      </c>
       <c r="AE1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="AF1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AG1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="AH1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="AI1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AJ1" s="23" t="s">
         <v>1691</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AK1" t="s">
         <v>1692</v>
       </c>
-      <c r="AK1" t="s">
-        <v>1693</v>
-      </c>
       <c r="AL1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="AM1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="AN1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="AO1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="AP1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="AR1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AS1" s="23" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AT1" t="s">
         <v>1731</v>
       </c>
-      <c r="AT1" t="s">
-        <v>1732</v>
-      </c>
       <c r="AU1" s="6" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>1786</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="BG1" t="s">
         <v>1795</v>
       </c>
-      <c r="AV1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>1737</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>1777</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="BE1" s="23" t="s">
-        <v>1787</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>1796</v>
-      </c>
       <c r="BH1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="BI1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="BK1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="BL1" s="6" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="BM1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="BN1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="BO1" s="23" t="s">
+        <v>1829</v>
+      </c>
+      <c r="BP1" t="s">
         <v>1830</v>
       </c>
-      <c r="BP1" t="s">
-        <v>1831</v>
-      </c>
       <c r="BQ1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="BR1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="BS1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="BT1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="BU1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="BV1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="BW1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="BX1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="BY1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="BZ1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="CA1" s="23" t="s">
+        <v>1879</v>
+      </c>
+      <c r="CB1" t="s">
         <v>1880</v>
       </c>
-      <c r="CB1" t="s">
-        <v>1881</v>
-      </c>
       <c r="CC1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="CD1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="CE1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="CF1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="CG1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="CH1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="CI1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="CJ1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="CK1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="CL1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="CM1" s="23" t="s">
+        <v>1931</v>
+      </c>
+      <c r="CN1" t="s">
         <v>1932</v>
       </c>
-      <c r="CN1" t="s">
-        <v>1933</v>
-      </c>
       <c r="CO1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="CP1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="CQ1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="CR1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="CS1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="CT1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="CU1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="CV1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="CW1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="2" spans="1:101">
@@ -18412,7 +18427,7 @@
         <v>1535</v>
       </c>
       <c r="AT3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="AU3" t="s">
         <v>1535</v>
@@ -18445,7 +18460,7 @@
         <v>1535</v>
       </c>
       <c r="BF3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BG3" t="s">
         <v>1535</v>
@@ -18472,7 +18487,7 @@
         <v>1535</v>
       </c>
       <c r="BP3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="BQ3" t="s">
         <v>1535</v>
@@ -18505,7 +18520,7 @@
         <v>1535</v>
       </c>
       <c r="CB3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="CC3" t="s">
         <v>1535</v>
@@ -18592,25 +18607,25 @@
         <v>1610</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="AK5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="AT5" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="BF5" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="BP5" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="CB5" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="CN5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -18628,25 +18643,25 @@
         <v>1618</v>
       </c>
       <c r="AC6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="AL6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="AV6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="BG6" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="BQ6" s="6" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="CD6" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="CO6" s="6" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="7" spans="1:101">
@@ -18660,9 +18675,6 @@
       <c r="F7" t="s">
         <v>1540</v>
       </c>
-      <c r="S7" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="8" spans="1:101">
       <c r="A8" s="18" t="s">
@@ -18675,9 +18687,6 @@
       <c r="F8" t="s">
         <v>1541</v>
       </c>
-      <c r="S8" t="s">
-        <v>1620</v>
-      </c>
     </row>
     <row r="9" spans="1:101">
       <c r="A9" s="18" t="s">
@@ -18724,28 +18733,28 @@
         <v>height</v>
       </c>
       <c r="W13" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="AE13" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="AM13" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="AW13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="BH13" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="BR13" s="6" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="CE13" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="CP13" s="6" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="14" spans="1:101">
@@ -18757,28 +18766,28 @@
         <v>weight</v>
       </c>
       <c r="W14" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="AE14" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="AM14" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AW14" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="BH14" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="BR14" s="6" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="CE14" s="6" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="CP14" s="6" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="15" spans="1:101">
@@ -18793,28 +18802,28 @@
         <v>1570</v>
       </c>
       <c r="W15" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="AE15" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="AM15" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="AW15" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="BH15" s="6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="BR15" s="6" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="CE15" s="6" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="CP15" s="6" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="16" spans="1:101">
@@ -18844,31 +18853,31 @@
         <v>wc</v>
       </c>
       <c r="J18" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="AE18" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="AM18" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="AW18" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="BH18" s="6" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="BR18" s="6" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="CE18" s="6" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="CP18" s="6" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="19" spans="1:100">
@@ -18880,13 +18889,13 @@
         <v>hba1c</v>
       </c>
       <c r="BT19" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="CG19" s="6" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="CR19" s="6" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="20" spans="1:100">
@@ -18898,19 +18907,19 @@
         <v>insulinf</v>
       </c>
       <c r="AZ20" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="BI20" s="6" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="BU20" s="6" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="CH20" s="6" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="CS20" s="6" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="21" spans="1:100">
@@ -18931,19 +18940,19 @@
         <v>glucosef</v>
       </c>
       <c r="AY22" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="BJ22" s="6" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="BV22" s="6" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="CI22" s="6" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="CT22" s="6" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="23" spans="1:100">
@@ -18964,16 +18973,16 @@
         <v>glucose2h</v>
       </c>
       <c r="AY24" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="BV24" s="6" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="CI24" s="6" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="CT24" s="6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="25" spans="1:100">
@@ -19007,25 +19016,25 @@
       </c>
       <c r="P27" s="6"/>
       <c r="AG27" s="6" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="AR27" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="BA27" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="BK27" s="6" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="BW27" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="CJ27" s="6" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="CU27" s="6" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="28" spans="1:100">
@@ -19041,25 +19050,25 @@
       </c>
       <c r="P28" s="6"/>
       <c r="AG28" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="AR28" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="BA28" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="BK28" s="6" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="BW28" s="6" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="CJ28" s="6" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="CU28" s="6" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="29" spans="1:100">
@@ -19075,25 +19084,25 @@
       </c>
       <c r="P29" s="6"/>
       <c r="AG29" s="6" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="AR29" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="BA29" s="6" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="BK29" s="6" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="BW29" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="CJ29" s="6" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="CU29" s="6" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="30" spans="1:100">
@@ -19105,25 +19114,25 @@
         <v>vldlc</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="AR30" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="BA30" s="6" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="BK30" s="6" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="BW30" s="6" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="CJ30" s="6" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="CU30" s="6" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="31" spans="1:100">
@@ -19139,25 +19148,25 @@
       </c>
       <c r="P31" s="6"/>
       <c r="AG31" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="AR31" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="BA31" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="BK31" s="6" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="BW31" s="6" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="CJ31" s="6" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="CU31" s="6" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="32" spans="1:100">
@@ -19169,19 +19178,19 @@
         <v>serumcreatinine</v>
       </c>
       <c r="BB32" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="BM32" s="6" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="BX32" s="6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="CK32" s="6" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="CV32" s="6" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="33" spans="1:101">
@@ -19193,19 +19202,19 @@
         <v>urinealbumin</v>
       </c>
       <c r="BC33" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="BL33" s="6" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="BY33" s="6" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CL33" s="6" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="CW33" s="6" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="34" spans="1:101">
@@ -19217,19 +19226,19 @@
         <v>urinecreatinine</v>
       </c>
       <c r="BC34" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="BL34" s="6" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="BY34" s="6" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="CL34" s="6" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="CW34" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="35" spans="1:101">
@@ -19241,19 +19250,19 @@
         <v>uacr</v>
       </c>
       <c r="BC35" s="6" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="BL35" s="6" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="BY35" s="6" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="CL35" s="6" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="CW35" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="36" spans="1:101">
@@ -19265,13 +19274,13 @@
         <v>egfr</v>
       </c>
       <c r="BX36" s="6" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="CK36" s="6" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="CV36" s="6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="37" spans="1:101">
@@ -19302,7 +19311,7 @@
         <v>1543</v>
       </c>
       <c r="B41" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F41" t="s">
         <v>1542</v>
@@ -19313,7 +19322,7 @@
         <v>1544</v>
       </c>
       <c r="B42" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E42" t="s">
         <v>625</v>
@@ -19324,7 +19333,7 @@
         <v>1545</v>
       </c>
       <c r="B43" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E43" t="s">
         <v>151</v>
@@ -19335,7 +19344,7 @@
         <v>1546</v>
       </c>
       <c r="B44" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F44" t="s">
         <v>1547</v>
@@ -19346,7 +19355,7 @@
         <v>1619</v>
       </c>
       <c r="B45" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>1538</v>
@@ -19378,7 +19387,7 @@
         <v>1548</v>
       </c>
       <c r="B46" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F46" t="s">
         <v>1549</v>
@@ -19389,7 +19398,7 @@
         <v>1551</v>
       </c>
       <c r="B47" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G47" t="s">
         <v>1552</v>
@@ -19397,24 +19406,24 @@
     </row>
     <row r="48" spans="1:101">
       <c r="A48" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1982</v>
+      </c>
+      <c r="T48" t="s">
         <v>1622</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1983</v>
-      </c>
-      <c r="T48" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="49" spans="1:94">
       <c r="A49" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1983</v>
+      </c>
+      <c r="T49" t="s">
         <v>1624</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1984</v>
-      </c>
-      <c r="T49" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="50" spans="1:94">
@@ -19422,13 +19431,13 @@
         <v>1553</v>
       </c>
       <c r="B50" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G50" t="s">
         <v>1554</v>
       </c>
       <c r="T50" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="51" spans="1:94">
@@ -19436,24 +19445,24 @@
         <v>1556</v>
       </c>
       <c r="B51" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="H51" t="s">
         <v>1557</v>
       </c>
       <c r="V51" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="52" spans="1:94">
       <c r="A52" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1986</v>
+      </c>
+      <c r="U52" t="s">
         <v>1628</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1987</v>
-      </c>
-      <c r="U52" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="53" spans="1:94">
@@ -19461,7 +19470,7 @@
         <v>1607</v>
       </c>
       <c r="B53" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E53" t="s">
         <v>1606</v>
@@ -19469,33 +19478,33 @@
     </row>
     <row r="54" spans="1:94">
       <c r="A54" s="6" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J54" t="s">
         <v>1742</v>
       </c>
-      <c r="B54" t="s">
-        <v>1989</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="W54" t="s">
         <v>1743</v>
       </c>
-      <c r="W54" t="s">
+      <c r="AE54" t="s">
         <v>1744</v>
       </c>
-      <c r="AE54" t="s">
-        <v>1745</v>
-      </c>
       <c r="AM54" s="6" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AW54" s="6" t="s">
         <v>1747</v>
-      </c>
-      <c r="AW54" s="6" t="s">
-        <v>1748</v>
       </c>
       <c r="BH54" s="25"/>
       <c r="BR54" s="26"/>
       <c r="CE54" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="CP54" s="6" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="56" spans="1:94">
@@ -19503,7 +19512,7 @@
         <v>1560</v>
       </c>
       <c r="B56" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D56" t="s">
         <v>1559</v>
@@ -19520,76 +19529,76 @@
         <v>1398</v>
       </c>
       <c r="P57" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="R57" s="6"/>
       <c r="X57" s="5" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AB57" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="AK57" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AT57" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="BF57" s="6" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="BP57" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="CB57" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="CN57" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="58" spans="1:94">
       <c r="A58" s="6" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B58" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="R58" s="6"/>
       <c r="X58" s="5"/>
       <c r="BF58" s="6"/>
       <c r="BG58" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="BP58" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="CB58" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="CN58" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="59" spans="1:94">
       <c r="A59" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B59" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="R59" s="6"/>
       <c r="X59" s="5"/>
       <c r="BF59" s="6"/>
       <c r="BG59" s="6"/>
       <c r="BP59" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="CB59" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="CN59" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="60" spans="1:94">
@@ -19597,19 +19606,19 @@
         <v>1561</v>
       </c>
       <c r="B60" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I60" t="s">
         <v>1562</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="AU60" s="6" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="CC60" s="6" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="61" spans="1:94">
@@ -19617,19 +19626,19 @@
         <v>1563</v>
       </c>
       <c r="B61" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I61" t="s">
         <v>1564</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="AU61" s="6" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="CC61" s="6" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="62" spans="1:94">
@@ -19637,19 +19646,19 @@
         <v>1565</v>
       </c>
       <c r="B62" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I62" t="s">
         <v>1566</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="AU62" s="6" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="CC62" s="6" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="63" spans="1:94">
@@ -19657,19 +19666,19 @@
         <v>1567</v>
       </c>
       <c r="B63" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I63" t="s">
         <v>1568</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="AU63" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="CC63" s="6" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="65" spans="1:95">
@@ -19683,28 +19692,28 @@
         <v>1574</v>
       </c>
       <c r="U65" s="6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AF65" s="6" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="AN65" s="6" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="AX65" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="BN65" s="6" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="BS65" s="6" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="CF65" s="6" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="CQ65" s="6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="66" spans="1:95">
@@ -19718,28 +19727,28 @@
         <v>1575</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="AF66" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="AN66" s="6" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="AX66" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="BN66" s="6" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="BS66" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="CF66" s="6" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="CQ66" s="6" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="67" spans="1:95">
@@ -19753,28 +19762,28 @@
         <v>1578</v>
       </c>
       <c r="U67" s="6" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AF67" s="6" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="AN67" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="AX67" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="BN67" s="6" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="BS67" s="6" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="CF67" s="6" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="CQ67" s="6" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="68" spans="1:95">
@@ -19788,28 +19797,28 @@
         <v>1579</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="AF68" s="6" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="AN68" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="AX68" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="BN68" s="6" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="BS68" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="CF68" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="CQ68" s="6" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="69" spans="1:95">
@@ -19823,28 +19832,28 @@
         <v>1582</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="AF69" s="6" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="AN69" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="AX69" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="BN69" s="6" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="BS69" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="CF69" s="6" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="CQ69" s="6" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="70" spans="1:95">
@@ -19858,28 +19867,28 @@
         <v>1583</v>
       </c>
       <c r="U70" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AF70" s="6" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="AN70" s="6" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="AX70" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="BN70" s="6" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="BS70" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="CF70" s="6" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="CQ70" s="6" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="74" spans="1:95">
@@ -19893,65 +19902,65 @@
         <v>1585</v>
       </c>
       <c r="AO74" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="75" spans="1:95">
       <c r="A75" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B75" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="AZ75" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="76" spans="1:95">
       <c r="A76" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B76" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="AZ76" s="6" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="77" spans="1:95">
       <c r="A77" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B77" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="AZ77" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="78" spans="1:95">
       <c r="A78" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B78" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="AZ78" s="6"/>
       <c r="BU78" s="6" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="79" spans="1:95">
       <c r="A79" s="6" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B79" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AZ79" s="6"/>
       <c r="BU79" s="6"/>
       <c r="CH79" s="6" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="80" spans="1:95">
@@ -19959,27 +19968,27 @@
         <v>1589</v>
       </c>
       <c r="B80" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="M80" t="s">
         <v>1588</v>
       </c>
       <c r="AP80" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="81" spans="1:98">
       <c r="A81" s="6" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B81" t="s">
         <v>1528</v>
       </c>
       <c r="M81" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="AP81" s="6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="82" spans="1:98">
@@ -19987,7 +19996,7 @@
         <v>1591</v>
       </c>
       <c r="B82" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="N82" s="6" t="s">
         <v>1592</v>
@@ -19995,51 +20004,51 @@
     </row>
     <row r="83" spans="1:98">
       <c r="A83" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AQ83" s="6" t="s">
         <v>1718</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2004</v>
-      </c>
-      <c r="AQ83" s="6" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="84" spans="1:98">
       <c r="A84" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B84" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="AQ84" s="6"/>
       <c r="AY84" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="85" spans="1:98">
       <c r="A85" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B85" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="AQ85" s="6"/>
       <c r="AY85" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="86" spans="1:98">
       <c r="A86" s="6" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2006</v>
+      </c>
+      <c r="CI86" s="6" t="s">
         <v>1915</v>
       </c>
-      <c r="B86" t="s">
-        <v>2007</v>
-      </c>
-      <c r="CI86" s="6" t="s">
-        <v>1916</v>
-      </c>
       <c r="CT86" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="89" spans="1:98">
@@ -20066,10 +20075,10 @@
       </c>
       <c r="P90" s="6"/>
       <c r="AI90" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="BD90" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="91" spans="1:98">
@@ -20077,7 +20086,7 @@
         <v>1602</v>
       </c>
       <c r="B91" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="N91" s="6" t="s">
         <v>1603</v>
@@ -20088,7 +20097,7 @@
         <v>1604</v>
       </c>
       <c r="B92" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="N92" s="6" t="s">
         <v>1605</v>
@@ -20096,57 +20105,57 @@
     </row>
     <row r="93" spans="1:98">
       <c r="A93" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B93" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="AH93" s="6" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="94" spans="1:98">
       <c r="A94" s="6" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="AH94" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="95" spans="1:98">
       <c r="A95" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B95" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="AH95" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="96" spans="1:98">
       <c r="A96" s="6" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B96" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="BX96" s="6" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="97" spans="1:92">
       <c r="A97" s="6" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B97" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="BX97" s="6" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="99" spans="1:92">
@@ -20154,13 +20163,13 @@
         <v>1613</v>
       </c>
       <c r="B99" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>1614</v>
       </c>
       <c r="X99" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="100" spans="1:92">
@@ -20168,85 +20177,85 @@
         <v>1615</v>
       </c>
       <c r="B100" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="P100" s="6" t="s">
         <v>1616</v>
       </c>
       <c r="X100" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="101" spans="1:92">
       <c r="A101" s="6" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2016</v>
+      </c>
+      <c r="Y101" s="6" t="s">
         <v>1648</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2017</v>
-      </c>
-      <c r="Y101" s="6" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="102" spans="1:92">
       <c r="A102" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2017</v>
+      </c>
+      <c r="Z102" s="6" t="s">
         <v>1651</v>
       </c>
-      <c r="B102" t="s">
-        <v>2018</v>
-      </c>
-      <c r="Z102" s="6" t="s">
-        <v>1652</v>
-      </c>
       <c r="AB102" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="AK102" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AT102" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="BF102" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="BZ102" s="6" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="CB102" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="CN102" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="103" spans="1:92">
       <c r="A103" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AK103" t="s">
         <v>1727</v>
       </c>
-      <c r="B103" t="s">
-        <v>2019</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>1729</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>1728</v>
-      </c>
       <c r="AT103" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="BF103" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="BZ103" s="6" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="CB103" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="CN103" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
   </sheetData>
@@ -20258,7 +20267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824997C4-ECFA-43DC-9501-1C6C5C097BCA}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20815,7 +20824,7 @@
         <v>totalc</v>
       </c>
       <c r="E27" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
@@ -20897,7 +20906,7 @@
         <v>urinealbumin</v>
       </c>
       <c r="E33" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -20909,7 +20918,7 @@
         <v>urinecreatinine</v>
       </c>
       <c r="E34" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="35" spans="1:8">

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2222" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5552DD7-E038-CF43-B4AF-58FD49FFAD91}"/>
+  <xr:revisionPtr revIDLastSave="2228" documentId="13_ncr:1_{0AF53CB1-23E0-45A0-9003-9470A819876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD8E7B9-FB9B-1040-9816-7538BFA481F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="SEARCH" sheetId="9" r:id="rId11"/>
     <sheet name="TODAY" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7612,10 +7612,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13799,11 +13795,11 @@
   </sheetPr>
   <dimension ref="A1:BE165"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV7" sqref="AV7:AV8"/>
+      <selection pane="bottomRight" activeCell="AV7" sqref="AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14248,10 +14244,10 @@
         <v>431</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>1013</v>
+        <v>431</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>1013</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -14271,10 +14267,10 @@
         <v>1013</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>431</v>
+        <v>1013</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>431</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -17963,7 +17959,7 @@
   </sheetPr>
   <dimension ref="A1:CW103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+    <sheetView zoomScale="176" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{620F84E1-9118-8B44-892D-83D017977405}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-14520" windowWidth="16440" windowHeight="28440" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31180" yWindow="-1460" windowWidth="31180" windowHeight="21100" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="2249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="2251">
   <si>
     <t>harmonized</t>
   </si>
@@ -7170,6 +7170,12 @@
   </si>
   <si>
     <t>PEMD</t>
+  </si>
+  <si>
+    <t>Treatment group</t>
+  </si>
+  <si>
+    <t>ASSIGN</t>
   </si>
 </sst>
 </file>
@@ -7612,6 +7618,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7881,11 +7891,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8212,20 +8222,20 @@
       <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="2.36328125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" customWidth="1"/>
-    <col min="5" max="5" width="2.1796875" style="23" customWidth="1"/>
-    <col min="6" max="7" width="18.1796875" customWidth="1"/>
-    <col min="8" max="8" width="1.81640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="1.83203125" style="23" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" customWidth="1"/>
-    <col min="12" max="12" width="2.36328125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9390,11 +9400,11 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11261,7 +11271,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="29">
+    <row r="150" spans="1:4" ht="32">
       <c r="A150" s="5" t="s">
         <v>913</v>
       </c>
@@ -11272,7 +11282,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="43.5">
+    <row r="151" spans="1:4" ht="48">
       <c r="A151" s="5" t="s">
         <v>914</v>
       </c>
@@ -11283,7 +11293,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="29">
+    <row r="152" spans="1:4" ht="32">
       <c r="A152" s="5" t="s">
         <v>915</v>
       </c>
@@ -11294,7 +11304,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="29">
+    <row r="153" spans="1:4" ht="32">
       <c r="A153" s="5" t="s">
         <v>916</v>
       </c>
@@ -11305,7 +11315,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="29">
+    <row r="154" spans="1:4" ht="32">
       <c r="A154" s="5" t="s">
         <v>917</v>
       </c>
@@ -11316,7 +11326,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="29">
+    <row r="155" spans="1:4" ht="32">
       <c r="A155" s="5" t="s">
         <v>888</v>
       </c>
@@ -11349,7 +11359,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="29">
+    <row r="158" spans="1:4" ht="32">
       <c r="A158" s="5" t="s">
         <v>897</v>
       </c>
@@ -11463,19 +11473,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C79ADD9-972D-451E-A958-4DB073B90EB6}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="98.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="98.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -13013,13 +13023,13 @@
       <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -13802,27 +13812,27 @@
       <selection pane="bottomRight" activeCell="AV7" sqref="AV7:AV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="2.453125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" customWidth="1"/>
+    <col min="5" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="11" max="11" width="2.36328125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" customWidth="1"/>
-    <col min="18" max="18" width="7.1796875" customWidth="1"/>
-    <col min="19" max="19" width="2.81640625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
     <col min="29" max="29" width="3" style="8" customWidth="1"/>
-    <col min="38" max="38" width="2.453125" style="8" customWidth="1"/>
-    <col min="39" max="39" width="11.453125" customWidth="1"/>
-    <col min="40" max="40" width="12.81640625" customWidth="1"/>
-    <col min="47" max="47" width="2.81640625" style="8" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" customWidth="1"/>
-    <col min="57" max="57" width="15.1796875" customWidth="1"/>
+    <col min="38" max="38" width="2.5" style="8" customWidth="1"/>
+    <col min="39" max="39" width="11.5" customWidth="1"/>
+    <col min="40" max="40" width="12.83203125" customWidth="1"/>
+    <col min="47" max="47" width="2.83203125" style="8" customWidth="1"/>
+    <col min="48" max="48" width="10.83203125" customWidth="1"/>
+    <col min="57" max="57" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57">
@@ -14663,7 +14673,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:53" ht="16">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -14784,7 +14794,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:56">
+    <row r="46" spans="1:56" ht="16">
       <c r="A46" s="6" t="s">
         <v>1205</v>
       </c>
@@ -17075,9 +17085,9 @@
       <selection pane="topRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
@@ -17966,27 +17976,27 @@
       <selection pane="bottomRight" activeCell="S7" sqref="S7:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="3" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="17" max="17" width="2.81640625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" customWidth="1"/>
-    <col min="27" max="27" width="2.1796875" style="23" customWidth="1"/>
-    <col min="28" max="28" width="9.81640625" customWidth="1"/>
-    <col min="36" max="36" width="2.6328125" style="23" customWidth="1"/>
-    <col min="45" max="45" width="3.1796875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" customWidth="1"/>
+    <col min="27" max="27" width="2.1640625" style="23" customWidth="1"/>
+    <col min="28" max="28" width="9.83203125" customWidth="1"/>
+    <col min="36" max="36" width="2.6640625" style="23" customWidth="1"/>
+    <col min="45" max="45" width="3.1640625" style="23" customWidth="1"/>
     <col min="57" max="57" width="3" style="23" customWidth="1"/>
-    <col min="67" max="67" width="2.6328125" style="23" customWidth="1"/>
+    <col min="67" max="67" width="2.6640625" style="23" customWidth="1"/>
     <col min="79" max="79" width="3" style="23" customWidth="1"/>
-    <col min="91" max="91" width="3.1796875" style="23" customWidth="1"/>
+    <col min="91" max="91" width="3.1640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" ht="16">
       <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
@@ -19302,7 +19312,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:101">
+    <row r="41" spans="1:101" ht="16">
       <c r="A41" s="24" t="s">
         <v>1535</v>
       </c>
@@ -19346,7 +19356,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="45" spans="1:101" ht="29">
+    <row r="45" spans="1:101" ht="16">
       <c r="A45" t="s">
         <v>1611</v>
       </c>
@@ -19517,7 +19527,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="57" spans="1:94">
+    <row r="57" spans="1:94" ht="16">
       <c r="A57" t="s">
         <v>385</v>
       </c>
@@ -20261,20 +20271,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824997C4-ECFA-43DC-9501-1C6C5C097BCA}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -21531,6 +21541,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B92" t="s">
+        <v>351</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>2250</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L2:U26"/>
@@ -21541,21 +21562,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BEC307-7012-42C0-8F8D-AEA3F585C15F}">
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -22703,6 +22724,17 @@
       </c>
       <c r="H87" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B88" t="s">
+        <v>351</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
@@ -22725,9 +22757,9 @@
       <selection pane="bottomRight" activeCell="D34" sqref="D34:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23523,12 +23555,12 @@
       <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{620F84E1-9118-8B44-892D-83D017977405}"/>
   <bookViews>
-    <workbookView xWindow="-31180" yWindow="-1460" windowWidth="31180" windowHeight="21100" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -7618,10 +7618,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8217,9 +8213,9 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="207" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="156" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13806,10 +13802,10 @@
   <dimension ref="A1:BE165"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AL27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV7" sqref="AV7:AV8"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17970,10 +17966,10 @@
   <dimension ref="A1:CW103"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BY43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7:S8"/>
+      <selection pane="bottomRight" activeCell="CB57" sqref="CB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21564,7 +21560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BEC307-7012-42C0-8F8D-AEA3F585C15F}">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
@@ -22751,7 +22747,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D34" sqref="D34:H34"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -8213,9 +8213,9 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="156" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="156" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A45" sqref="A45"/>
+      <selection pane="topRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{620F84E1-9118-8B44-892D-83D017977405}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894381F3-8508-5640-A8B7-DEF723E69685}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8213,7 +8213,7 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="156" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="156" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
@@ -13802,10 +13802,10 @@
   <dimension ref="A1:BE165"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:XFD47"/>
+      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17966,10 +17966,10 @@
   <dimension ref="A1:CW103"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BY43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CB57" sqref="CB57"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20270,10 +20270,10 @@
   <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -21561,11 +21561,11 @@
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E30" sqref="E30"/>
       <selection pane="topRight" activeCell="E30" sqref="E30"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-      <selection pane="bottomRight" activeCell="F88" sqref="F88"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -22747,10 +22747,10 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34:H34"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894381F3-8508-5640-A8B7-DEF723E69685}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548830DD-3FAA-3C45-9F99-48E28E8EED4A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="2252">
   <si>
     <t>harmonized</t>
   </si>
@@ -7176,6 +7176,9 @@
   </si>
   <si>
     <t>ASSIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENDER </t>
   </si>
 </sst>
 </file>
@@ -8213,7 +8216,7 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="156" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="156" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
@@ -13801,11 +13804,11 @@
   </sheetPr>
   <dimension ref="A1:BE165"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="AM7" sqref="AM7:AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14249,8 +14252,14 @@
       <c r="L7" s="6" t="s">
         <v>431</v>
       </c>
+      <c r="U7" t="s">
+        <v>431</v>
+      </c>
       <c r="AD7" s="6" t="s">
-        <v>1005</v>
+        <v>2251</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>2251</v>
       </c>
       <c r="AV7" s="6" t="s">
         <v>1005</v>
@@ -14272,8 +14281,14 @@
       <c r="L8" s="6" t="s">
         <v>1005</v>
       </c>
+      <c r="U8" t="s">
+        <v>1005</v>
+      </c>
       <c r="AD8" s="6" t="s">
-        <v>431</v>
+        <v>1005</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>1005</v>
       </c>
       <c r="AV8" s="6" t="s">
         <v>431</v>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{548830DD-3FAA-3C45-9F99-48E28E8EED4A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6BDE36E-E837-1940-94FD-1F64C782289B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -13015,16 +13015,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541D2D4A-1C12-4007-8B3C-4F63FCF697FB}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
@@ -13804,8 +13804,8 @@
   </sheetPr>
   <dimension ref="A1:BE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AM7" sqref="AM7:AM8"/>

--- a/data/Phenotypes Variable List.xlsx
+++ b/data/Phenotypes Variable List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{737B7464-E1EB-4A48-967A-E9EF54A23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{894381F3-8508-5640-A8B7-DEF723E69685}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA6DE1B-8F2C-445A-B7D6-ACB5F687D830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Harmonized" sheetId="2" r:id="rId1"/>
@@ -7887,11 +7887,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8213,25 +8213,25 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="156" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="119" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="2.1640625" style="23" customWidth="1"/>
-    <col min="6" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="1.83203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="2.1796875" style="23" customWidth="1"/>
+    <col min="6" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="1.81640625" style="23" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.1796875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="2.36328125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9396,11 +9396,11 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11267,7 +11267,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="32">
+    <row r="150" spans="1:4" ht="29">
       <c r="A150" s="5" t="s">
         <v>913</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="48">
+    <row r="151" spans="1:4" ht="43.5">
       <c r="A151" s="5" t="s">
         <v>914</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="32">
+    <row r="152" spans="1:4" ht="29">
       <c r="A152" s="5" t="s">
         <v>915</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="32">
+    <row r="153" spans="1:4" ht="29">
       <c r="A153" s="5" t="s">
         <v>916</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="32">
+    <row r="154" spans="1:4" ht="29">
       <c r="A154" s="5" t="s">
         <v>917</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="32">
+    <row r="155" spans="1:4" ht="29">
       <c r="A155" s="5" t="s">
         <v>888</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="32">
+    <row r="158" spans="1:4" ht="29">
       <c r="A158" s="5" t="s">
         <v>897</v>
       </c>
@@ -11476,12 +11476,12 @@
       <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="98.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="98.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -13019,13 +13019,13 @@
       <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -13801,34 +13801,34 @@
   </sheetPr>
   <dimension ref="A1:BE165"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="BN8" sqref="BN8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="2.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.453125" style="8" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="6" width="9.83203125" customWidth="1"/>
+    <col min="5" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="11" max="11" width="2.33203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="2.36328125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" customWidth="1"/>
+    <col min="18" max="18" width="7.1796875" customWidth="1"/>
+    <col min="19" max="19" width="2.81640625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" customWidth="1"/>
     <col min="29" max="29" width="3" style="8" customWidth="1"/>
-    <col min="38" max="38" width="2.5" style="8" customWidth="1"/>
-    <col min="39" max="39" width="11.5" customWidth="1"/>
-    <col min="40" max="40" width="12.83203125" customWidth="1"/>
-    <col min="47" max="47" width="2.83203125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="10.83203125" customWidth="1"/>
-    <col min="57" max="57" width="15.1640625" customWidth="1"/>
+    <col min="38" max="38" width="2.453125" style="8" customWidth="1"/>
+    <col min="39" max="39" width="11.453125" customWidth="1"/>
+    <col min="40" max="40" width="12.81640625" customWidth="1"/>
+    <col min="47" max="47" width="2.81640625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" customWidth="1"/>
+    <col min="57" max="57" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57">
@@ -14250,10 +14250,10 @@
         <v>431</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>1005</v>
+        <v>431</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>1005</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -14273,10 +14273,10 @@
         <v>1005</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>431</v>
+        <v>1005</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>431</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -14669,7 +14669,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="32" spans="1:53" ht="16">
+    <row r="32" spans="1:53">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="16">
+    <row r="46" spans="1:56">
       <c r="A46" s="6" t="s">
         <v>1205</v>
       </c>
@@ -17081,9 +17081,9 @@
       <selection pane="topRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
@@ -17972,27 +17972,27 @@
       <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="3" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="17" max="17" width="2.83203125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" customWidth="1"/>
-    <col min="27" max="27" width="2.1640625" style="23" customWidth="1"/>
-    <col min="28" max="28" width="9.83203125" customWidth="1"/>
-    <col min="36" max="36" width="2.6640625" style="23" customWidth="1"/>
-    <col min="45" max="45" width="3.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="17" max="17" width="2.81640625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" customWidth="1"/>
+    <col min="27" max="27" width="2.1796875" style="23" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" customWidth="1"/>
+    <col min="36" max="36" width="2.6328125" style="23" customWidth="1"/>
+    <col min="45" max="45" width="3.1796875" style="23" customWidth="1"/>
     <col min="57" max="57" width="3" style="23" customWidth="1"/>
-    <col min="67" max="67" width="2.6640625" style="23" customWidth="1"/>
+    <col min="67" max="67" width="2.6328125" style="23" customWidth="1"/>
     <col min="79" max="79" width="3" style="23" customWidth="1"/>
-    <col min="91" max="91" width="3.1640625" style="23" customWidth="1"/>
+    <col min="91" max="91" width="3.1796875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="16">
+    <row r="1" spans="1:101">
       <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:101" ht="16">
+    <row r="41" spans="1:101">
       <c r="A41" s="24" t="s">
         <v>1535</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="45" spans="1:101" ht="16">
+    <row r="45" spans="1:101" ht="29">
       <c r="A45" t="s">
         <v>1611</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="57" spans="1:94" ht="16">
+    <row r="57" spans="1:94">
       <c r="A57" t="s">
         <v>385</v>
       </c>
@@ -20276,11 +20276,11 @@
       <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -21568,11 +21568,11 @@
       <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -22753,9 +22753,9 @@
       <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23551,12 +23551,12 @@
       <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
